--- a/inst/extdata/CopyOfData/apiTotalWoodPulp.xlsx
+++ b/inst/extdata/CopyOfData/apiTotalWoodPulp.xlsx
@@ -1,20 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjones/Desktop/woodcarb/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24816"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="26280" windowHeight="12720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,9 +21,107 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+  <si>
+    <t>UNITED STATES</t>
+  </si>
+  <si>
+    <t>(In tons of 2000 pounds, air dry weight)</t>
+  </si>
+  <si>
+    <t>Summary -  Total Wood Pulp, All Grades</t>
+  </si>
+  <si>
+    <t>Waste Paper</t>
+  </si>
+  <si>
+    <t>Rags &amp; Other</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Imports</t>
+  </si>
+  <si>
+    <t>Exports</t>
+  </si>
+  <si>
+    <t>New Supply</t>
+  </si>
+  <si>
+    <t>Consumption in
+Paper &amp; Board</t>
+  </si>
+  <si>
+    <t>Estimated
+Production</t>
+  </si>
+  <si>
+    <t>Estimated
+Imports</t>
+  </si>
+  <si>
+    <t>Estimated
+Exports</t>
+  </si>
+  <si>
+    <t>R   -  REVISED</t>
+  </si>
+  <si>
+    <t>P   -   PRELIMINARY</t>
+  </si>
+  <si>
+    <t>INTERPOLATED BETWEEN KNOWN VALUES</t>
+  </si>
+  <si>
+    <t>ESTIMATED USING BEST AVAILABLE DATA AND HISTORICAL PATTERNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sources:    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Production</t>
+  </si>
+  <si>
+    <t>1869 -  1962 U.  S.  Bureau of the Census</t>
+  </si>
+  <si>
+    <t>1963 -          Pulp Producers Division, A.  P.  I.</t>
+  </si>
+  <si>
+    <r>
+      <t>Imports,  Exports,  Consumption</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> -  Bureau of the Census</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>New Supply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  - Production plus Imports minus Exports</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -33,13 +129,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -54,8 +197,92 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" indent="4"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -68,6 +295,944 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Instructions_original"/>
+      <sheetName val="Parameters&amp;Results"/>
+      <sheetName val="Table 4.G s1"/>
+      <sheetName val="Table 4.G s2"/>
+      <sheetName val="06 IPCC Tables"/>
+      <sheetName val="IPCC Tables"/>
+      <sheetName val="Flowchart"/>
+      <sheetName val="Cons&amp;Trade"/>
+      <sheetName val="Dumps"/>
+      <sheetName val="Calculation"/>
+      <sheetName val="SW Calc"/>
+      <sheetName val="USA"/>
+      <sheetName val="SW Calc P"/>
+      <sheetName val="Control"/>
+      <sheetName val="Ince_Table 3"/>
+      <sheetName val="Ince_Table 4"/>
+      <sheetName val="Heath "/>
+      <sheetName val="MSW C&amp;D"/>
+      <sheetName val="Birdsey_92"/>
+      <sheetName val="Hair_1963_Table 2_adj"/>
+      <sheetName val="Hair_1963_Table 20"/>
+      <sheetName val="Hair_1963_Table 21"/>
+      <sheetName val="Hair_1958_Table 14_adj"/>
+      <sheetName val="Hair_1958_Table 18"/>
+      <sheetName val="Commerce_Series L 56-71"/>
+      <sheetName val="API_1973_Total Wood Pulp"/>
+      <sheetName val="API_1975_PulpwoodC&amp;I"/>
+      <sheetName val="API_1975_Pulpwood_SWHW"/>
+      <sheetName val="API_1975_Consumption_Fiberpulp"/>
+      <sheetName val="Ulrich_Table 4_adj"/>
+      <sheetName val="Ulrich_Table 5_adj"/>
+      <sheetName val="Ulrich_Table 6_adj"/>
+      <sheetName val="Ulrich_Table 29_adj"/>
+      <sheetName val="Ulrich_Table 36_adj"/>
+      <sheetName val="Ulrich_Table 43_adj"/>
+      <sheetName val="Ulrich_Table 48"/>
+      <sheetName val="Ulrich_Table 49"/>
+      <sheetName val="Ulrich_Table 52_adj"/>
+      <sheetName val="Ulrich_Table 53_adj"/>
+      <sheetName val="Ulrich_Table 54_adj"/>
+      <sheetName val="Howard_Table 5a"/>
+      <sheetName val="Howard_Table 6a"/>
+      <sheetName val="Howard_Table 7a"/>
+      <sheetName val="Howard_Table 28"/>
+      <sheetName val="Howard_Table 37"/>
+      <sheetName val="Howard_Table 38"/>
+      <sheetName val="Howard_Table 46"/>
+      <sheetName val="Howard_Table 47"/>
+      <sheetName val="Howard_Table 49"/>
+      <sheetName val="Howard_Table 53"/>
+      <sheetName val="Howard_Table 55"/>
+      <sheetName val="Howard_Table 56"/>
+      <sheetName val="Ince_Table 1"/>
+      <sheetName val="Ince_Table 2"/>
+      <sheetName val="Ince_Sources"/>
+      <sheetName val="Ince_Pulp,P&amp;BD"/>
+      <sheetName val="Ince_Paper&amp;Paperboard"/>
+      <sheetName val="Haynes_Table 12"/>
+      <sheetName val="Imports_Table 1"/>
+      <sheetName val="Imports_Table 2"/>
+      <sheetName val="Imports_Table 3"/>
+      <sheetName val="Exports_Table 1"/>
+      <sheetName val="Exports_Table 2"/>
+      <sheetName val="Exports_Table 3"/>
+      <sheetName val="Howard_Conv_SU2shtons_corrected"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28">
+        <row r="6">
+          <cell r="D6">
+            <v>580766.49090550176</v>
+          </cell>
+          <cell r="F6">
+            <v>139103.78638295454</v>
+          </cell>
+          <cell r="H6">
+            <v>165004.7593293415</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>653800.5683498471</v>
+          </cell>
+          <cell r="F7">
+            <v>156596.73211343991</v>
+          </cell>
+          <cell r="H7">
+            <v>185754.87243031507</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>726834.64579419221</v>
+          </cell>
+          <cell r="F8">
+            <v>174089.67784392528</v>
+          </cell>
+          <cell r="H8">
+            <v>206504.98553128858</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>799868.72323853755</v>
+          </cell>
+          <cell r="F9">
+            <v>191582.62357441065</v>
+          </cell>
+          <cell r="H9">
+            <v>227255.09863226212</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>873406.26203832927</v>
+          </cell>
+          <cell r="F10">
+            <v>209196.15715205451</v>
+          </cell>
+          <cell r="H10">
+            <v>248148.25290569989</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11">
+            <v>968638.21667005157</v>
+          </cell>
+          <cell r="F11">
+            <v>232005.88478160158</v>
+          </cell>
+          <cell r="H11">
+            <v>275205.12688265758</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12">
+            <v>1068764.0651586915</v>
+          </cell>
+          <cell r="F12">
+            <v>255987.78604084984</v>
+          </cell>
+          <cell r="H12">
+            <v>303652.43193766352</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13">
+            <v>1197748.9234788213</v>
+          </cell>
+          <cell r="F13">
+            <v>286881.92759234377</v>
+          </cell>
+          <cell r="H13">
+            <v>340299.02887038025</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14">
+            <v>997251.5225301442</v>
+          </cell>
+          <cell r="F14">
+            <v>238859.27465240267</v>
+          </cell>
+          <cell r="H14">
+            <v>283334.61045479024</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
+            <v>1222907.8186559614</v>
+          </cell>
+          <cell r="F15">
+            <v>292907.92536452151</v>
+          </cell>
+          <cell r="H15">
+            <v>347447.06083968963</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16">
+            <v>1292835.9294664424</v>
+          </cell>
+          <cell r="F16">
+            <v>309656.93747294822</v>
+          </cell>
+          <cell r="H16">
+            <v>367314.72069149814</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17">
+            <v>1380949.3291073919</v>
+          </cell>
+          <cell r="F17">
+            <v>330761.64601427637</v>
+          </cell>
+          <cell r="H17">
+            <v>392349.10289005825</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="D18">
+            <v>1398717.7043405834</v>
+          </cell>
+          <cell r="F18">
+            <v>335017.48430989916</v>
+          </cell>
+          <cell r="H18">
+            <v>397397.37362354191</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="D19">
+            <v>1426465.4689734343</v>
+          </cell>
+          <cell r="F19">
+            <v>341663.56183767546</v>
+          </cell>
+          <cell r="H19">
+            <v>405280.94352102716</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="D20">
+            <v>1509981</v>
+          </cell>
+          <cell r="F20">
+            <v>361667</v>
+          </cell>
+          <cell r="H20">
+            <v>429009</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="D21">
+            <v>1624822.2995868856</v>
+          </cell>
+          <cell r="F21">
+            <v>313975.54462903616</v>
+          </cell>
+          <cell r="H21">
+            <v>436105.27965457289</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="D22">
+            <v>1785276.4126669394</v>
+          </cell>
+          <cell r="F22">
+            <v>344981.19217282464</v>
+          </cell>
+          <cell r="H22">
+            <v>479171.45733707678</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="D23">
+            <v>1815853.0031409345</v>
+          </cell>
+          <cell r="F23">
+            <v>350889.71623075544</v>
+          </cell>
+          <cell r="H23">
+            <v>487378.27019466454</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="D24">
+            <v>1693797.8825369086</v>
+          </cell>
+          <cell r="F24">
+            <v>327304.16907513404</v>
+          </cell>
+          <cell r="H24">
+            <v>454618.4523870034</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="D25">
+            <v>1854386</v>
+          </cell>
+          <cell r="F25">
+            <v>277849</v>
+          </cell>
+          <cell r="H25">
+            <v>470393</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="D26">
+            <v>2413389.292435294</v>
+          </cell>
+          <cell r="F26">
+            <v>420218.4540705058</v>
+          </cell>
+          <cell r="H26">
+            <v>515381.78590414696</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="D27">
+            <v>1821446.7675936045</v>
+          </cell>
+          <cell r="F27">
+            <v>317149.63982356602</v>
+          </cell>
+          <cell r="H27">
+            <v>388971.8459239814</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="D28">
+            <v>2444259.9911007201</v>
+          </cell>
+          <cell r="F28">
+            <v>425593.64874379104</v>
+          </cell>
+          <cell r="H28">
+            <v>521974.2556147594</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="D29">
+            <v>2646054.5261499193</v>
+          </cell>
+          <cell r="F29">
+            <v>460730.03880901897</v>
+          </cell>
+          <cell r="H29">
+            <v>565067.68782038917</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="D30">
+            <v>2679520.5240255939</v>
+          </cell>
+          <cell r="F30">
+            <v>466557.12602421583</v>
+          </cell>
+          <cell r="H30">
+            <v>572214.38636848179</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="D31">
+            <v>2871704.2292667036</v>
+          </cell>
+          <cell r="F31">
+            <v>500020.08194562409</v>
+          </cell>
+          <cell r="H31">
+            <v>613255.41590288084</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="D32">
+            <v>3130783.4418940279</v>
+          </cell>
+          <cell r="F32">
+            <v>545130.85895673779</v>
+          </cell>
+          <cell r="H32">
+            <v>668582.05040525482</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="D33">
+            <v>3061510.0237264624</v>
+          </cell>
+          <cell r="F33">
+            <v>533068.99691823521</v>
+          </cell>
+          <cell r="H33">
+            <v>653788.64012420631</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="D34">
+            <v>3202896.7854944314</v>
+          </cell>
+          <cell r="F34">
+            <v>557687.20776486502</v>
+          </cell>
+          <cell r="H34">
+            <v>683981.92970727663</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="D35">
+            <v>3841942</v>
+          </cell>
+          <cell r="F35">
+            <v>739422</v>
+          </cell>
+          <cell r="H35">
+            <v>704063</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="D36">
+            <v>3563248.4297564705</v>
+          </cell>
+          <cell r="F36">
+            <v>596336.64140720887</v>
+          </cell>
+          <cell r="H36">
+            <v>562968.13770387834</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="D37">
+            <v>3307822.1434888807</v>
+          </cell>
+          <cell r="F37">
+            <v>553589.11574834224</v>
+          </cell>
+          <cell r="H37">
+            <v>522612.58474836627</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="D38">
+            <v>2886435.066994891</v>
+          </cell>
+          <cell r="F38">
+            <v>483066.79352395487</v>
+          </cell>
+          <cell r="H38">
+            <v>456036.39664842049</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="D39">
+            <v>3411255.8911946747</v>
+          </cell>
+          <cell r="F39">
+            <v>570899.53766558401</v>
+          </cell>
+          <cell r="H39">
+            <v>538954.38787255739</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="D40">
+            <v>3389350.4761577938</v>
+          </cell>
+          <cell r="F40">
+            <v>567233.50037145766</v>
+          </cell>
+          <cell r="H40">
+            <v>535493.4866886941</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="D41">
+            <v>3587390</v>
+          </cell>
+          <cell r="F41">
+            <v>501589</v>
+          </cell>
+          <cell r="H41">
+            <v>467360</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="D42">
+            <v>4000188.9042649055</v>
+          </cell>
+          <cell r="F42">
+            <v>497363.91619304696</v>
+          </cell>
+          <cell r="H42">
+            <v>574928.1201720332</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="D43">
+            <v>4445366.8668924365</v>
+          </cell>
+          <cell r="F43">
+            <v>552715.16589508054</v>
+          </cell>
+          <cell r="H43">
+            <v>638911.43079083413</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="D44">
+            <v>3858386.7559833894</v>
+          </cell>
+          <cell r="F44">
+            <v>479732.93088665616</v>
+          </cell>
+          <cell r="H44">
+            <v>554547.57202818757</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="D45">
+            <v>4366257</v>
+          </cell>
+          <cell r="F45">
+            <v>468287</v>
+          </cell>
+          <cell r="H45">
+            <v>692315</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="D46">
+            <v>4667502</v>
+          </cell>
+          <cell r="F46">
+            <v>402600</v>
+          </cell>
+          <cell r="H46">
+            <v>640967</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="D47">
+            <v>6075129</v>
+          </cell>
+          <cell r="F47">
+            <v>529976</v>
+          </cell>
+          <cell r="H47">
+            <v>887581</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="D48">
+            <v>5494959</v>
+          </cell>
+          <cell r="F48">
+            <v>480614</v>
+          </cell>
+          <cell r="H48">
+            <v>844337</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="D49">
+            <v>6367854</v>
+          </cell>
+          <cell r="F49">
+            <v>425910</v>
+          </cell>
+          <cell r="H49">
+            <v>770358</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="D50">
+            <v>6859332</v>
+          </cell>
+          <cell r="F50">
+            <v>427837</v>
+          </cell>
+          <cell r="H50">
+            <v>957389</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="D51">
+            <v>6799683</v>
+          </cell>
+          <cell r="F51">
+            <v>414083</v>
+          </cell>
+          <cell r="H51">
+            <v>929453</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="D52">
+            <v>7278097</v>
+          </cell>
+          <cell r="F52">
+            <v>402506</v>
+          </cell>
+          <cell r="H52">
+            <v>979755</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="D53">
+            <v>8009052</v>
+          </cell>
+          <cell r="F53">
+            <v>462388</v>
+          </cell>
+          <cell r="H53">
+            <v>1063161</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="D54">
+            <v>7584501</v>
+          </cell>
+          <cell r="F54">
+            <v>415668</v>
+          </cell>
+          <cell r="H54">
+            <v>1036044</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="D55">
+            <v>6599606</v>
+          </cell>
+          <cell r="F55">
+            <v>381915</v>
+          </cell>
+          <cell r="H55">
+            <v>833174</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="D56">
+            <v>7956036</v>
+          </cell>
+          <cell r="F56">
+            <v>441894</v>
+          </cell>
+          <cell r="H56">
+            <v>997444</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="D57">
+            <v>9070554</v>
+          </cell>
+          <cell r="F57">
+            <v>387843</v>
+          </cell>
+          <cell r="H57">
+            <v>1069159</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="D58">
+            <v>7881193</v>
+          </cell>
+          <cell r="F58">
+            <v>324560</v>
+          </cell>
+          <cell r="H58">
+            <v>886556</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="D59">
+            <v>8530662</v>
+          </cell>
+          <cell r="F59">
+            <v>325154</v>
+          </cell>
+          <cell r="H59">
+            <v>929461</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="D60">
+            <v>7856637</v>
+          </cell>
+          <cell r="F60">
+            <v>316737</v>
+          </cell>
+          <cell r="H60">
+            <v>882955</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="D61">
+            <v>9040768</v>
+          </cell>
+          <cell r="F61">
+            <v>340353</v>
+          </cell>
+          <cell r="H61">
+            <v>1000060</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="D62">
+            <v>8836449</v>
+          </cell>
+          <cell r="F62">
+            <v>298259</v>
+          </cell>
+          <cell r="H62">
+            <v>1253070</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="D63">
+            <v>8493109</v>
+          </cell>
+          <cell r="G63">
+            <v>1105475</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="D64">
+            <v>8670824</v>
+          </cell>
+          <cell r="G64">
+            <v>1003335</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="D65">
+            <v>9414153</v>
+          </cell>
+          <cell r="G65">
+            <v>979457</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="D66">
+            <v>9031614</v>
+          </cell>
+          <cell r="G66">
+            <v>970940</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="D67">
+            <v>9017749</v>
+          </cell>
+          <cell r="G67">
+            <v>894257</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="D68">
+            <v>9074815</v>
+          </cell>
+          <cell r="G68">
+            <v>962918</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="D69">
+            <v>9612815</v>
+          </cell>
+          <cell r="G69">
+            <v>1284715</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="D70">
+            <v>9843489</v>
+          </cell>
+          <cell r="G70">
+            <v>928586</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="D71">
+            <v>10231163</v>
+          </cell>
+          <cell r="G71">
+            <v>879000</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="D72">
+            <v>10563897</v>
+          </cell>
+          <cell r="G72">
+            <v>980362</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="D73">
+            <v>9888133</v>
+          </cell>
+          <cell r="G73">
+            <v>836000</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="D74">
+            <v>10221745</v>
+          </cell>
+          <cell r="G74">
+            <v>904751</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="D75">
+            <v>11969000</v>
+          </cell>
+          <cell r="G75">
+            <v>877839</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="D76">
+            <v>11803000</v>
+          </cell>
+          <cell r="G76">
+            <v>828000</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="D77">
+            <v>12106000</v>
+          </cell>
+          <cell r="G77">
+            <v>875000</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="D78">
+            <v>12925000</v>
+          </cell>
+          <cell r="G78">
+            <v>892000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47">
+        <row r="10">
+          <cell r="J10">
+            <v>2.6891642887823537E-2</v>
+          </cell>
+          <cell r="K10">
+            <v>9.9462240817977474E-3</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="J11">
+            <v>2.2082268118231694E-2</v>
+          </cell>
+          <cell r="K11">
+            <v>1.0143480883577975E-2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="J12">
+            <v>2.4933858657378329E-2</v>
+          </cell>
+          <cell r="K12">
+            <v>8.1843963531852536E-3</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="J13">
+            <v>2.3350253807106598E-2</v>
+          </cell>
+          <cell r="K13">
+            <v>8.5832948777111208E-3</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="J14">
+            <v>2.2860306913463059E-2</v>
+          </cell>
+          <cell r="K14">
+            <v>5.9326056003796866E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
+      <sheetData sheetId="57"/>
+      <sheetData sheetId="58"/>
+      <sheetData sheetId="59"/>
+      <sheetData sheetId="60"/>
+      <sheetData sheetId="61"/>
+      <sheetData sheetId="62"/>
+      <sheetData sheetId="63"/>
+      <sheetData sheetId="64"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -113,7 +1278,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -148,7 +1313,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,7 +1490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -333,2602 +1498,6230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:AC125"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:M77"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:29">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+    </row>
+    <row r="7" spans="1:29" ht="33">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="6">
+        <v>1869</v>
+      </c>
+      <c r="B8" s="2">
         <v>1077</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="6">
+        <v>1879</v>
+      </c>
+      <c r="B9" s="2">
         <v>22570</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="6">
+        <v>1889</v>
+      </c>
+      <c r="B10" s="2">
         <v>305544</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="6">
+        <v>1899</v>
+      </c>
+      <c r="B11" s="2">
         <v>1179525</v>
       </c>
-      <c r="B4">
+      <c r="C11" s="12">
         <v>57335</v>
       </c>
-      <c r="C4">
+      <c r="D11" s="12">
         <v>20606</v>
       </c>
-      <c r="D4">
+      <c r="E11" s="12">
         <v>1216254</v>
       </c>
-      <c r="E4">
+      <c r="F11" s="2">
         <v>1172880</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="6">
+        <v>1900</v>
+      </c>
+      <c r="B12" s="13">
+        <f>B11+((B$16-B$11)/5)</f>
         <v>1327973.6000000001</v>
       </c>
-      <c r="B5">
+      <c r="C12" s="13">
+        <f>C11+((C$16-C$11)/5)</f>
         <v>81732.800000000003</v>
       </c>
-      <c r="C5">
+      <c r="D12" s="13">
+        <f>D11+((D$16-D$11)/5)</f>
         <v>18502</v>
       </c>
-      <c r="D5">
+      <c r="E12" s="14">
+        <f>B12+C12-D12</f>
         <v>1391204.4000000001</v>
       </c>
-      <c r="E5">
+      <c r="F12" s="14">
+        <f>E12*AVERAGE(F$11/E$11,F$16/E$16)</f>
         <v>1342365.5579365452</v>
       </c>
-      <c r="G5">
+      <c r="G12" s="2"/>
+      <c r="H12" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D6*(B12/F12)</f>
         <v>574539.89572906168</v>
       </c>
-      <c r="H5">
+      <c r="I12" s="14">
+        <f>$H12*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>4916.912634098936</v>
       </c>
-      <c r="I5">
+      <c r="J12" s="14">
+        <f>$H12*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>13802.554602794837</v>
       </c>
-      <c r="K5">
+      <c r="K12" s="3"/>
+      <c r="L12" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F6+[1]API_1975_Consumption_Fiberpulp!H6)*(B12/F12)</f>
         <v>300848.09450944851</v>
       </c>
-      <c r="L5">
+      <c r="M12" s="14">
+        <f>$L12*(C12/$B12)</f>
         <v>18516.299675627477</v>
       </c>
-      <c r="M5">
+      <c r="N12" s="14">
+        <f>$L12*(D12/$B12)</f>
         <v>4191.5678478953314</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="6">
+        <v>1901</v>
+      </c>
+      <c r="B13" s="13">
+        <f t="shared" ref="B13:D15" si="0">B12+((B$16-B$11)/5)</f>
         <v>1476422.2000000002</v>
       </c>
-      <c r="B6">
+      <c r="C13" s="13">
+        <f t="shared" si="0"/>
         <v>106130.6</v>
       </c>
-      <c r="C6">
+      <c r="D13" s="13">
+        <f t="shared" si="0"/>
         <v>16398</v>
       </c>
-      <c r="D6">
+      <c r="E13" s="14">
+        <f t="shared" ref="E13:E18" si="1">B13+C13-D13</f>
         <v>1566154.8000000003</v>
       </c>
-      <c r="E6">
+      <c r="F13" s="14">
+        <f>E13*AVERAGE(F$11/E$11,F$16/E$16)</f>
         <v>1511174.2472328283</v>
       </c>
-      <c r="G6">
+      <c r="G13" s="2"/>
+      <c r="H13" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D7*(B13/F13)</f>
         <v>638765.30138857581</v>
       </c>
-      <c r="H6">
+      <c r="I13" s="14">
+        <f>$H13*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>5466.5536788111958</v>
       </c>
-      <c r="I6">
+      <c r="J13" s="14">
+        <f>$H13*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>15345.484302006067</v>
       </c>
-      <c r="K6">
+      <c r="K13" s="3"/>
+      <c r="L13" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F7+[1]API_1975_Consumption_Fiberpulp!H7)*(B13/F13)</f>
         <v>334478.64141384128</v>
       </c>
-      <c r="L6">
+      <c r="M13" s="14">
+        <f t="shared" ref="M13:N76" si="2">$L13*(C13/$B13)</f>
         <v>24043.541813741234</v>
       </c>
-      <c r="M6">
+      <c r="N13" s="14">
+        <f t="shared" si="2"/>
         <v>3714.9134996101848</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="6">
+        <v>1902</v>
+      </c>
+      <c r="B14" s="13">
+        <f t="shared" si="0"/>
         <v>1624870.8000000003</v>
       </c>
-      <c r="B7">
+      <c r="C14" s="13">
+        <f t="shared" si="0"/>
         <v>130528.40000000001</v>
       </c>
-      <c r="C7">
+      <c r="D14" s="13">
+        <f t="shared" si="0"/>
         <v>14294</v>
       </c>
-      <c r="D7">
+      <c r="E14" s="14">
+        <f t="shared" si="1"/>
         <v>1741105.2000000002</v>
       </c>
-      <c r="E7">
+      <c r="F14" s="14">
+        <f>E14*AVERAGE(F$11/E$11,F$16/E$16)</f>
         <v>1679982.9365291111</v>
       </c>
-      <c r="G7">
+      <c r="G14" s="2"/>
+      <c r="H14" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D8*(B14/F14)</f>
         <v>702990.70704808983</v>
       </c>
-      <c r="H7">
+      <c r="I14" s="14">
+        <f>$H14*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>6016.1947235234547</v>
       </c>
-      <c r="I7">
+      <c r="J14" s="14">
+        <f>$H14*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>16888.414001217294</v>
       </c>
-      <c r="K7">
+      <c r="K14" s="3"/>
+      <c r="L14" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F8+[1]API_1975_Consumption_Fiberpulp!H8)*(B14/F14)</f>
         <v>368109.18831823417</v>
       </c>
-      <c r="L7">
+      <c r="M14" s="14">
+        <f t="shared" si="2"/>
         <v>29570.783951854995</v>
       </c>
-      <c r="M7">
+      <c r="N14" s="14">
+        <f t="shared" si="2"/>
         <v>3238.2591513250395</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="6">
+        <v>1903</v>
+      </c>
+      <c r="B15" s="13">
+        <f t="shared" si="0"/>
         <v>1773319.4000000004</v>
       </c>
-      <c r="B8">
+      <c r="C15" s="13">
+        <f t="shared" si="0"/>
         <v>154926.20000000001</v>
       </c>
-      <c r="C8">
+      <c r="D15" s="13">
+        <f t="shared" si="0"/>
         <v>12190</v>
       </c>
-      <c r="D8">
+      <c r="E15" s="14">
+        <f t="shared" si="1"/>
         <v>1916055.6000000003</v>
       </c>
-      <c r="E8">
+      <c r="F15" s="14">
+        <f>E15*AVERAGE(F$11/E$11,F$16/E$16)</f>
         <v>1848791.6258253942</v>
       </c>
-      <c r="G8">
+      <c r="G15" s="2"/>
+      <c r="H15" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D9*(B15/F15)</f>
         <v>767216.11270760384</v>
       </c>
-      <c r="H8">
+      <c r="I15" s="14">
+        <f>$H15*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>6565.8357682357127</v>
       </c>
-      <c r="I8">
+      <c r="J15" s="14">
+        <f>$H15*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>18431.343700428519</v>
       </c>
-      <c r="K8">
+      <c r="K15" s="3"/>
+      <c r="L15" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F9+[1]API_1975_Consumption_Fiberpulp!H9)*(B15/F15)</f>
         <v>401739.73522262688</v>
       </c>
-      <c r="L8">
+      <c r="M15" s="14">
+        <f t="shared" si="2"/>
         <v>35098.026089968749</v>
       </c>
-      <c r="M8">
+      <c r="N15" s="14">
+        <f t="shared" si="2"/>
         <v>2761.6048030398929</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="6">
+        <v>1904</v>
+      </c>
+      <c r="B16" s="2">
         <v>1921768</v>
       </c>
-      <c r="B9">
+      <c r="C16" s="12">
         <v>179324</v>
       </c>
-      <c r="C9">
+      <c r="D16" s="12">
         <v>10086</v>
       </c>
-      <c r="D9">
+      <c r="E16" s="12">
         <v>2091006</v>
       </c>
-      <c r="E9">
+      <c r="F16" s="2">
         <v>2018764</v>
       </c>
-      <c r="G9">
+      <c r="G16" s="2"/>
+      <c r="H16" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D10*(B16/F16)</f>
         <v>831441.51836711774</v>
       </c>
-      <c r="H9">
+      <c r="I16" s="14">
+        <f>$H16*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>7115.4768129479708</v>
       </c>
-      <c r="I9">
+      <c r="J16" s="14">
+        <f>$H16*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>19974.273399639744</v>
       </c>
-      <c r="K9">
+      <c r="K16" s="3"/>
+      <c r="L16" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F10+[1]API_1975_Consumption_Fiberpulp!H10)*(B16/F16)</f>
         <v>435370.28212701954</v>
       </c>
-      <c r="L9">
+      <c r="M16" s="14">
+        <f t="shared" si="2"/>
         <v>40625.268228082503</v>
       </c>
-      <c r="M9">
+      <c r="N16" s="14">
+        <f t="shared" si="2"/>
         <v>2284.9504547547463</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" s="6">
+        <v>1905</v>
+      </c>
+      <c r="B17" s="13">
+        <f>B16+((B$19-B$16)/3)</f>
         <v>2130471.6666666665</v>
       </c>
-      <c r="B10">
+      <c r="C17" s="12">
         <v>170867</v>
       </c>
-      <c r="C10">
+      <c r="D17" s="13">
+        <f>D16+((D$19-D$16)/3)</f>
         <v>10863.666666666666</v>
       </c>
-      <c r="D10">
+      <c r="E17" s="14">
+        <f t="shared" si="1"/>
         <v>2290475</v>
       </c>
-      <c r="E10">
+      <c r="F17" s="14">
+        <f>E17*AVERAGE(F$21/E$21,F$16/E$16)</f>
         <v>2238880.1704651453</v>
       </c>
-      <c r="G10">
+      <c r="G17" s="2"/>
+      <c r="H17" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D11*(B17/F17)</f>
         <v>921735.92097040697</v>
       </c>
-      <c r="H10">
+      <c r="I17" s="14">
+        <f>$H17*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>7888.2163428724398</v>
       </c>
-      <c r="I10">
+      <c r="J17" s="14">
+        <f>$H17*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>22143.475976385362</v>
       </c>
-      <c r="K10">
+      <c r="K17" s="3"/>
+      <c r="L17" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F11+[1]API_1975_Consumption_Fiberpulp!H11)*(B17/F17)</f>
         <v>482651.41816300835</v>
       </c>
-      <c r="L10">
+      <c r="M17" s="14">
+        <f t="shared" si="2"/>
         <v>38709.362418459183</v>
       </c>
-      <c r="M10">
+      <c r="N17" s="14">
+        <f t="shared" si="2"/>
         <v>2461.1283056022189</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" s="6">
+        <v>1906</v>
+      </c>
+      <c r="B18" s="13">
+        <f>B17+((B$19-B$16)/3)</f>
         <v>2339175.333333333</v>
       </c>
-      <c r="B11">
+      <c r="C18" s="12">
         <v>199702</v>
       </c>
-      <c r="C11">
+      <c r="D18" s="13">
+        <f>D17+((D$19-D$16)/3)</f>
         <v>11641.333333333332</v>
       </c>
-      <c r="D11">
+      <c r="E18" s="14">
+        <f t="shared" si="1"/>
         <v>2527235.9999999995</v>
       </c>
-      <c r="E11">
+      <c r="F18" s="14">
+        <f>E18*AVERAGE(F$21/E$21,F$16/E$16)</f>
         <v>2470307.9345924538</v>
       </c>
-      <c r="G11">
+      <c r="G18" s="2"/>
+      <c r="H18" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D12*(B18/F18)</f>
         <v>1012030.3235736963</v>
       </c>
-      <c r="H11">
+      <c r="I18" s="14">
+        <f>$H18*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>8660.9558727969106</v>
       </c>
-      <c r="I11">
+      <c r="J18" s="14">
+        <f>$H18*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>24312.678553130983</v>
       </c>
-      <c r="K11">
+      <c r="K18" s="3"/>
+      <c r="L18" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F12+[1]API_1975_Consumption_Fiberpulp!H12)*(B18/F18)</f>
         <v>529932.5541989971</v>
       </c>
-      <c r="L11">
+      <c r="M18" s="14">
+        <f t="shared" si="2"/>
         <v>45241.837766749188</v>
       </c>
-      <c r="M11">
+      <c r="N18" s="14">
+        <f t="shared" si="2"/>
         <v>2637.3061564496911</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19" s="6">
+        <v>1907</v>
+      </c>
+      <c r="B19" s="2">
         <v>2547879</v>
       </c>
-      <c r="B12">
+      <c r="C19" s="12">
         <v>296778</v>
       </c>
-      <c r="C12">
+      <c r="D19" s="12">
         <v>12419</v>
       </c>
-      <c r="D12">
+      <c r="E19" s="12">
         <v>2832238</v>
       </c>
-      <c r="E12">
+      <c r="F19" s="14">
+        <f>E19*AVERAGE(F$21/E$21,F$16/E$16)</f>
         <v>2768439.5141784395</v>
       </c>
-      <c r="G12">
+      <c r="G19" s="2"/>
+      <c r="H19" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D13*(B19/F19)</f>
         <v>1102324.7261769858</v>
       </c>
-      <c r="H12">
+      <c r="I19" s="14">
+        <f>$H19*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>9433.6954027213815</v>
       </c>
-      <c r="I12">
+      <c r="J19" s="14">
+        <f>$H19*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>26481.881129876609</v>
       </c>
-      <c r="K12">
+      <c r="K19" s="3"/>
+      <c r="L19" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F13+[1]API_1975_Consumption_Fiberpulp!H13)*(B19/F19)</f>
         <v>577213.6902349859</v>
       </c>
-      <c r="L12">
+      <c r="M19" s="14">
+        <f t="shared" si="2"/>
         <v>67234.089436962531</v>
       </c>
-      <c r="M12">
+      <c r="N19" s="14">
+        <f t="shared" si="2"/>
         <v>2813.4840072971638</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20" s="6">
+        <v>1908</v>
+      </c>
+      <c r="B20" s="2">
         <v>2118947</v>
       </c>
-      <c r="B13">
+      <c r="C20" s="12">
         <v>250485</v>
       </c>
-      <c r="C13">
+      <c r="D20" s="12">
         <v>11297</v>
       </c>
-      <c r="D13">
+      <c r="E20" s="12">
         <v>2358135</v>
       </c>
-      <c r="E13">
+      <c r="F20" s="14">
+        <f>E20*AVERAGE(F$21/E$21,F$16/E$16)</f>
         <v>2305016.0734257414</v>
       </c>
-      <c r="G13">
+      <c r="G20" s="2"/>
+      <c r="H20" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D14*(B20/F20)</f>
         <v>916749.8423428057</v>
       </c>
-      <c r="H13">
+      <c r="I20" s="14">
+        <f>$H20*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>7845.5454801857795</v>
       </c>
-      <c r="I13">
+      <c r="J20" s="14">
+        <f>$H20*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>22023.692088403197</v>
       </c>
-      <c r="K13">
+      <c r="K20" s="3"/>
+      <c r="L20" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F14+[1]API_1975_Consumption_Fiberpulp!H14)*(B20/F20)</f>
         <v>480040.54245996487</v>
       </c>
-      <c r="L13">
+      <c r="M20" s="14">
+        <f t="shared" si="2"/>
         <v>56746.561040971908</v>
       </c>
-      <c r="M13">
+      <c r="N20" s="14">
+        <f t="shared" si="2"/>
         <v>2559.2985611108834</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21" s="6">
+        <v>1909</v>
+      </c>
+      <c r="B21" s="2">
         <v>2495523</v>
       </c>
-      <c r="B14">
+      <c r="C21" s="12">
         <v>370023</v>
       </c>
-      <c r="C14">
+      <c r="D21" s="12">
         <v>8953</v>
       </c>
-      <c r="D14">
+      <c r="E21" s="12">
         <v>2856593</v>
       </c>
-      <c r="E14">
+      <c r="F21" s="2">
         <v>2826591</v>
       </c>
-      <c r="G14">
+      <c r="G21" s="2"/>
+      <c r="H21" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D15*(B21/F21)</f>
         <v>1079673.2135408982</v>
       </c>
-      <c r="H14">
+      <c r="I21" s="14">
+        <f>$H21*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>9239.843749442367</v>
       </c>
-      <c r="I14">
+      <c r="J21" s="14">
+        <f>$H21*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>25937.708754172811</v>
       </c>
-      <c r="K14">
+      <c r="K21" s="3"/>
+      <c r="L21" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F15+[1]API_1975_Consumption_Fiberpulp!H15)*(B21/F21)</f>
         <v>565352.60893326683</v>
       </c>
-      <c r="L14">
+      <c r="M21" s="14">
+        <f t="shared" si="2"/>
         <v>83827.505663267468</v>
       </c>
-      <c r="M14">
+      <c r="N21" s="14">
+        <f t="shared" si="2"/>
         <v>2028.2729943901691</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" s="6">
+        <v>1910</v>
+      </c>
+      <c r="B22" s="2">
         <v>2533976</v>
       </c>
-      <c r="B15">
+      <c r="C22" s="12">
         <v>506776</v>
       </c>
-      <c r="C15">
+      <c r="D22" s="12">
         <v>8361</v>
       </c>
-      <c r="D15">
+      <c r="E22" s="12">
         <v>3032391</v>
       </c>
-      <c r="E15">
+      <c r="F22" s="14">
+        <f>E22*AVERAGE(F$21/E$21,F$26/E$26)</f>
         <v>2988220.6548673185</v>
       </c>
-      <c r="G15">
+      <c r="G22" s="2"/>
+      <c r="H22" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D16*(B22/F22)</f>
         <v>1096309.6757495366</v>
       </c>
-      <c r="H15">
+      <c r="I22" s="14">
+        <f>$H22*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>9382.2185990018806</v>
       </c>
-      <c r="I15">
+      <c r="J22" s="14">
+        <f>$H22*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>26337.377566972453</v>
       </c>
-      <c r="K15">
+      <c r="K22" s="3"/>
+      <c r="L22" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F16+[1]API_1975_Consumption_Fiberpulp!H16)*(B22/F22)</f>
         <v>574064.01086036221</v>
       </c>
-      <c r="L15">
+      <c r="M22" s="14">
+        <f t="shared" si="2"/>
         <v>114808.45247459759</v>
       </c>
-      <c r="M15">
+      <c r="N22" s="14">
+        <f t="shared" si="2"/>
         <v>1894.1573222491013</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" s="6">
+        <v>1911</v>
+      </c>
+      <c r="B23" s="2">
         <v>2686134</v>
       </c>
-      <c r="B16">
+      <c r="C23" s="12">
         <v>562424</v>
       </c>
-      <c r="C16">
+      <c r="D23" s="12">
         <v>9494</v>
       </c>
-      <c r="D16">
+      <c r="E23" s="12">
         <v>3239064</v>
       </c>
-      <c r="E16">
+      <c r="F23" s="14">
+        <f>E23*AVERAGE(F$21/E$21,F$26/E$26)</f>
         <v>3191883.2192936717</v>
       </c>
-      <c r="G16">
+      <c r="G23" s="2"/>
+      <c r="H23" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D17*(B23/F23)</f>
         <v>1162139.9313015616</v>
       </c>
-      <c r="H16">
+      <c r="I23" s="14">
+        <f>$H23*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>9945.5939496709216</v>
       </c>
-      <c r="I16">
+      <c r="J23" s="14">
+        <f>$H23*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>27918.861644104756</v>
       </c>
-      <c r="K16">
+      <c r="K23" s="3"/>
+      <c r="L23" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F17+[1]API_1975_Consumption_Fiberpulp!H17)*(B23/F23)</f>
         <v>608534.91025502537</v>
       </c>
-      <c r="L16">
+      <c r="M23" s="14">
+        <f t="shared" si="2"/>
         <v>127415.32565585797</v>
       </c>
-      <c r="M16">
+      <c r="N23" s="14">
+        <f t="shared" si="2"/>
         <v>2150.8347826136787</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+    </row>
+    <row r="24" spans="1:29">
+      <c r="A24" s="6">
+        <v>1912</v>
+      </c>
+      <c r="B24" s="13">
+        <f>B23+((B$26-B$23)/3)</f>
         <v>2755139.3333333335</v>
       </c>
-      <c r="B17">
+      <c r="C24" s="12">
         <v>539790</v>
       </c>
-      <c r="C17">
+      <c r="D24" s="12">
         <v>14189</v>
       </c>
-      <c r="D17">
+      <c r="E24" s="14">
+        <f>B24+C24-D24</f>
         <v>3280740.3333333335</v>
       </c>
-      <c r="E17">
+      <c r="F24" s="14">
+        <f>E24*AVERAGE(F$21/E$21,F$26/E$26)</f>
         <v>3232952.4877639324</v>
       </c>
-      <c r="G17">
+      <c r="G24" s="2"/>
+      <c r="H24" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D18*(B24/F24)</f>
         <v>1191994.6791806477</v>
       </c>
-      <c r="H17">
+      <c r="I24" s="14">
+        <f>$H24*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>10201.090892747856</v>
       </c>
-      <c r="I17">
+      <c r="J24" s="14">
+        <f>$H24*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>28636.082137958991</v>
       </c>
-      <c r="K17">
+      <c r="K24" s="3"/>
+      <c r="L24" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F18+[1]API_1975_Consumption_Fiberpulp!H18)*(B24/F24)</f>
         <v>624167.84380454989</v>
       </c>
-      <c r="L17">
+      <c r="M24" s="14">
+        <f t="shared" si="2"/>
         <v>122287.66666389696</v>
       </c>
-      <c r="M17">
+      <c r="N24" s="14">
+        <f t="shared" si="2"/>
         <v>3214.4717432594784</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="A25" s="6">
+        <v>1913</v>
+      </c>
+      <c r="B25" s="13">
+        <f>B24+((B$26-B$23)/3)</f>
         <v>2824144.666666667</v>
       </c>
-      <c r="B18">
+      <c r="C25" s="12">
         <v>541455</v>
       </c>
-      <c r="C18">
+      <c r="D25" s="12">
         <v>19776</v>
       </c>
-      <c r="D18">
+      <c r="E25" s="14">
+        <f>B25+C25-D25</f>
         <v>3345823.666666667</v>
       </c>
-      <c r="E18">
+      <c r="F25" s="14">
+        <f>E25*AVERAGE(F$21/E$21,F$26/E$26)</f>
         <v>3297087.8057207139</v>
       </c>
-      <c r="G18">
+      <c r="G25" s="2"/>
+      <c r="H25" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D19*(B25/F25)</f>
         <v>1221849.4270597342</v>
       </c>
-      <c r="H18">
+      <c r="I25" s="14">
+        <f>$H25*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>10456.587835824796</v>
       </c>
-      <c r="I18">
+      <c r="J25" s="14">
+        <f>$H25*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>29353.302631813236</v>
       </c>
-      <c r="K18">
+      <c r="K25" s="3"/>
+      <c r="L25" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F19+[1]API_1975_Consumption_Fiberpulp!H19)*(B25/F25)</f>
         <v>639800.77735407429</v>
       </c>
-      <c r="L18">
+      <c r="M25" s="14">
+        <f t="shared" si="2"/>
         <v>122664.86699179372</v>
       </c>
-      <c r="M18">
+      <c r="N25" s="14">
+        <f t="shared" si="2"/>
         <v>4480.1883990908063</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="A26" s="6">
+        <v>1914</v>
+      </c>
+      <c r="B26" s="2">
         <v>2893150</v>
       </c>
-      <c r="B19">
+      <c r="C26" s="12">
         <v>675564</v>
       </c>
-      <c r="C19">
+      <c r="D26" s="12">
         <v>12337</v>
       </c>
-      <c r="D19">
+      <c r="E26" s="12">
         <v>3556377</v>
       </c>
-      <c r="E19">
+      <c r="F26" s="2">
         <v>3490123</v>
       </c>
-      <c r="G19">
+      <c r="G26" s="2"/>
+      <c r="H26" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D20*(B26/F26)</f>
         <v>1251704.1749388203</v>
       </c>
-      <c r="H19">
+      <c r="I26" s="14">
+        <f>$H26*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>10712.084778901732</v>
       </c>
-      <c r="I19">
+      <c r="J26" s="14">
+        <f>$H26*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>30070.523125667474</v>
       </c>
-      <c r="K19">
+      <c r="K26" s="3"/>
+      <c r="L26" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F20+[1]API_1975_Consumption_Fiberpulp!H20)*(B26/F26)</f>
         <v>655433.71090359858</v>
       </c>
-      <c r="L19">
+      <c r="M26" s="14">
+        <f t="shared" si="2"/>
         <v>153046.82421335869</v>
       </c>
-      <c r="M19">
+      <c r="N26" s="14">
+        <f t="shared" si="2"/>
         <v>2794.9071743316781</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="A27" s="6">
+        <v>1915</v>
+      </c>
+      <c r="B27" s="13">
+        <f>B26+((B28-B26)/2)</f>
         <v>3164075.5</v>
       </c>
-      <c r="B20">
+      <c r="C27" s="15">
         <v>568379</v>
       </c>
-      <c r="C20">
+      <c r="D27" s="15">
         <v>20294</v>
       </c>
-      <c r="D20">
+      <c r="E27" s="14">
+        <f>B27+C27-D27</f>
         <v>3712160.5</v>
       </c>
-      <c r="E20">
+      <c r="F27" s="14">
+        <f>E27*AVERAGE(F$31/E$31,F$26/E$26)</f>
         <v>3635075.2628333997</v>
       </c>
-      <c r="G20">
+      <c r="G27" s="2"/>
+      <c r="H27" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D21*(B27/F27)</f>
         <v>1414292.7059973083</v>
       </c>
-      <c r="H20">
+      <c r="I27" s="14">
+        <f>$H27*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>12103.517486123266</v>
       </c>
-      <c r="I20">
+      <c r="J27" s="14">
+        <f>$H27*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>33976.495703734116</v>
       </c>
-      <c r="K20">
+      <c r="K27" s="3"/>
+      <c r="L27" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F21+[1]API_1975_Consumption_Fiberpulp!H21)*(B27/F27)</f>
         <v>652892.22025231679</v>
       </c>
-      <c r="L20">
+      <c r="M27" s="14">
+        <f t="shared" si="2"/>
         <v>117282.35538462707</v>
       </c>
-      <c r="M20">
+      <c r="N27" s="14">
+        <f t="shared" si="2"/>
         <v>4187.5722364401599</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="A28" s="6">
+        <v>1916</v>
+      </c>
+      <c r="B28" s="2">
         <v>3435001</v>
       </c>
-      <c r="B21">
+      <c r="C28" s="15">
         <v>683765</v>
       </c>
-      <c r="C21">
+      <c r="D28" s="15">
         <v>40023</v>
       </c>
-      <c r="D21">
+      <c r="E28" s="15">
         <v>4078743</v>
       </c>
-      <c r="E21">
+      <c r="F28" s="14">
+        <f>E28*AVERAGE(F$31/E$31,F$26/E$26)</f>
         <v>3994045.4575589844</v>
       </c>
-      <c r="G21">
+      <c r="G28" s="2"/>
+      <c r="H28" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D22*(B28/F28)</f>
         <v>1535392.2052092182</v>
       </c>
-      <c r="H21">
+      <c r="I28" s="14">
+        <f>$H28*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>13139.887043893517</v>
       </c>
-      <c r="I21">
+      <c r="J28" s="14">
+        <f>$H28*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>36885.749634868822</v>
       </c>
-      <c r="K21">
+      <c r="K28" s="3"/>
+      <c r="L28" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F22+[1]API_1975_Consumption_Fiberpulp!H22)*(B28/F28)</f>
         <v>708796.43341599428</v>
       </c>
-      <c r="L21">
+      <c r="M28" s="14">
+        <f t="shared" si="2"/>
         <v>141091.71825413947</v>
       </c>
-      <c r="M21">
+      <c r="N28" s="14">
+        <f t="shared" si="2"/>
         <v>8258.5593583839818</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+    </row>
+    <row r="29" spans="1:29">
+      <c r="A29" s="6">
+        <v>1917</v>
+      </c>
+      <c r="B29" s="2">
         <v>3509939</v>
       </c>
-      <c r="B22">
+      <c r="C29" s="15">
         <v>677841</v>
       </c>
-      <c r="C22">
+      <c r="D29" s="2">
         <v>39180</v>
       </c>
-      <c r="D22">
+      <c r="E29" s="15">
         <v>4148600</v>
       </c>
-      <c r="E22">
+      <c r="F29" s="14">
+        <f>E29*AVERAGE(F$31/E$31,F$26/E$26)</f>
         <v>4062451.8350945874</v>
       </c>
-      <c r="G22">
+      <c r="G29" s="2"/>
+      <c r="H29" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D23*(B29/F29)</f>
         <v>1568888.3296860284</v>
       </c>
-      <c r="H22">
+      <c r="I29" s="14">
+        <f>$H29*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>13426.546889202235</v>
       </c>
-      <c r="I22">
+      <c r="J29" s="14">
+        <f>$H29*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>37690.449344166664</v>
       </c>
-      <c r="K22">
+      <c r="K29" s="3"/>
+      <c r="L29" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F23+[1]API_1975_Consumption_Fiberpulp!H23)*(B29/F29)</f>
         <v>724259.54015958111</v>
       </c>
-      <c r="L22">
+      <c r="M29" s="14">
+        <f t="shared" si="2"/>
         <v>139869.32848727875</v>
       </c>
-      <c r="M22">
+      <c r="N29" s="14">
+        <f t="shared" si="2"/>
         <v>8084.6102406487371</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+    </row>
+    <row r="30" spans="1:29">
+      <c r="A30" s="6">
+        <v>1918</v>
+      </c>
+      <c r="B30" s="2">
         <v>3313861</v>
       </c>
-      <c r="B23">
+      <c r="C30" s="15">
         <v>578209</v>
       </c>
-      <c r="C23">
+      <c r="D30" s="15">
         <v>22324</v>
       </c>
-      <c r="D23">
+      <c r="E30" s="15">
         <v>3869746</v>
       </c>
-      <c r="E23">
+      <c r="F30" s="14">
+        <f>E30*AVERAGE(F$31/E$31,F$26/E$26)</f>
         <v>3789388.4054982257</v>
       </c>
-      <c r="G23">
+      <c r="G30" s="2"/>
+      <c r="H30" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D24*(B30/F30)</f>
         <v>1481244.5028536599</v>
       </c>
-      <c r="H23">
+      <c r="I30" s="14">
+        <f>$H30*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>12676.490987677736</v>
       </c>
-      <c r="I23">
+      <c r="J30" s="14">
+        <f>$H30*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>35584.9233146529</v>
       </c>
-      <c r="K23">
+      <c r="K30" s="3"/>
+      <c r="L30" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F24+[1]API_1975_Consumption_Fiberpulp!H24)*(B30/F30)</f>
         <v>683799.75948663766</v>
       </c>
-      <c r="L23">
+      <c r="M30" s="14">
+        <f t="shared" si="2"/>
         <v>119310.73003152797</v>
       </c>
-      <c r="M23">
+      <c r="N30" s="14">
+        <f t="shared" si="2"/>
         <v>4606.4532672854111</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+    </row>
+    <row r="31" spans="1:29">
+      <c r="A31" s="6">
+        <v>1919</v>
+      </c>
+      <c r="B31" s="2">
         <v>3517952</v>
       </c>
-      <c r="B24">
+      <c r="C31" s="15">
         <v>636016</v>
       </c>
-      <c r="C24">
+      <c r="D31" s="15">
         <v>40057</v>
       </c>
-      <c r="D24">
+      <c r="E31" s="15">
         <v>4113911</v>
       </c>
-      <c r="E24">
+      <c r="F31" s="2">
         <v>4019696</v>
       </c>
-      <c r="G24">
+      <c r="G31" s="2"/>
+      <c r="H31" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D25*(B31/F31)</f>
         <v>1622918.9813040588</v>
       </c>
-      <c r="H24">
+      <c r="I31" s="14">
+        <f>$H31*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>13888.941225164192</v>
       </c>
-      <c r="I24">
+      <c r="J31" s="14">
+        <f>$H31*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>38988.463676550171</v>
       </c>
-      <c r="K24">
+      <c r="K31" s="3"/>
+      <c r="L31" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F25+[1]API_1975_Consumption_Fiberpulp!H25)*(B31/F31)</f>
         <v>654845.40133980277</v>
       </c>
-      <c r="L24">
+      <c r="M31" s="14">
+        <f t="shared" si="2"/>
         <v>118390.51606688664</v>
       </c>
-      <c r="M24">
+      <c r="N31" s="14">
+        <f t="shared" si="2"/>
         <v>7456.367295934816</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+    </row>
+    <row r="32" spans="1:29">
+      <c r="A32" s="6">
+        <v>1920</v>
+      </c>
+      <c r="B32" s="2">
         <v>3821704</v>
       </c>
-      <c r="B25">
+      <c r="C32" s="15">
         <v>906297</v>
       </c>
-      <c r="C25">
+      <c r="D32" s="15">
         <v>31966</v>
       </c>
-      <c r="D25">
+      <c r="E32" s="15">
         <v>4696035</v>
       </c>
-      <c r="E25">
+      <c r="F32" s="14">
+        <f>E32*AVERAGE(F$31/E$31,F$41/E$41)</f>
         <v>4501782.4832104165</v>
       </c>
-      <c r="G25">
+      <c r="G32" s="2"/>
+      <c r="H32" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D26*(B32/F32)</f>
         <v>2048801.6795248683</v>
       </c>
-      <c r="H25">
+      <c r="I32" s="14">
+        <f>$H32*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>17533.645509570462</v>
       </c>
-      <c r="I25">
+      <c r="J32" s="14">
+        <f>$H32*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>49219.727406493759</v>
       </c>
-      <c r="K25">
+      <c r="K32" s="3"/>
+      <c r="L32" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F26+[1]API_1975_Consumption_Fiberpulp!H26)*(B32/F32)</f>
         <v>794260.31640742091</v>
       </c>
-      <c r="L25">
+      <c r="M32" s="14">
+        <f t="shared" si="2"/>
         <v>188354.65592811382</v>
       </c>
-      <c r="M25">
+      <c r="N32" s="14">
+        <f t="shared" si="2"/>
         <v>6643.4567601990148</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+    </row>
+    <row r="33" spans="1:29">
+      <c r="A33" s="6">
+        <v>1921</v>
+      </c>
+      <c r="B33" s="2">
         <v>2875601</v>
       </c>
-      <c r="B26">
+      <c r="C33" s="15">
         <v>697100</v>
       </c>
-      <c r="C26">
+      <c r="D33" s="15">
         <v>28483</v>
       </c>
-      <c r="D26">
+      <c r="E33" s="15">
         <v>3544218</v>
       </c>
-      <c r="E26">
+      <c r="F33" s="14">
+        <f t="shared" ref="F33:F40" si="3">E33*AVERAGE(F$31/E$31,F$41/E$41)</f>
         <v>3397610.6458063144</v>
       </c>
-      <c r="G26">
+      <c r="G33" s="2"/>
+      <c r="H33" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D27*(B33/F33)</f>
         <v>1541599.286193643</v>
       </c>
-      <c r="H26">
+      <c r="I33" s="14">
+        <f>$H33*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>13193.007245188619</v>
       </c>
-      <c r="I26">
+      <c r="J33" s="14">
+        <f>$H33*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>37034.866475750307</v>
       </c>
-      <c r="K26">
+      <c r="K33" s="3"/>
+      <c r="L33" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F27+[1]API_1975_Consumption_Fiberpulp!H27)*(B33/F33)</f>
         <v>597632.82559860614</v>
       </c>
-      <c r="L26">
+      <c r="M33" s="14">
+        <f t="shared" si="2"/>
         <v>144877.48568900497</v>
       </c>
-      <c r="M26">
+      <c r="N33" s="14">
+        <f t="shared" si="2"/>
         <v>5919.5889038587411</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+    </row>
+    <row r="34" spans="1:29">
+      <c r="A34" s="6">
+        <v>1922</v>
+      </c>
+      <c r="B34" s="16">
         <v>3521644</v>
       </c>
-      <c r="B27">
+      <c r="C34" s="15">
         <v>1258961</v>
       </c>
-      <c r="C27">
+      <c r="D34" s="15">
         <v>24501</v>
       </c>
-      <c r="D27">
+      <c r="E34" s="15">
         <v>4756104</v>
       </c>
-      <c r="E27">
+      <c r="F34" s="14">
+        <f t="shared" si="3"/>
         <v>4559366.7158628488</v>
       </c>
-      <c r="G27">
+      <c r="G34" s="2"/>
+      <c r="H34" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D28*(B34/F34)</f>
         <v>1887940.5997661448</v>
       </c>
-      <c r="H27">
+      <c r="I34" s="14">
+        <f>$H34*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>16156.996331193037</v>
       </c>
-      <c r="I27">
+      <c r="J34" s="14">
+        <f>$H34*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>45355.254541616589</v>
       </c>
-      <c r="K27">
+      <c r="K34" s="3"/>
+      <c r="L34" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F28+[1]API_1975_Consumption_Fiberpulp!H28)*(B34/F34)</f>
         <v>731899.19410668511</v>
       </c>
-      <c r="L27">
+      <c r="M34" s="14">
+        <f t="shared" si="2"/>
         <v>261648.40662819592</v>
       </c>
-      <c r="M27">
+      <c r="N34" s="14">
+        <f t="shared" si="2"/>
         <v>5092.0144554099998</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+    </row>
+    <row r="35" spans="1:29">
+      <c r="A35" s="6">
+        <v>1923</v>
+      </c>
+      <c r="B35" s="16">
         <v>3788672</v>
       </c>
-      <c r="B28">
+      <c r="C35" s="15">
         <v>1383156</v>
       </c>
-      <c r="C28">
+      <c r="D35" s="15">
         <v>23067</v>
       </c>
-      <c r="D28">
+      <c r="E35" s="15">
         <v>5148761</v>
       </c>
-      <c r="E28">
+      <c r="F35" s="14">
+        <f t="shared" si="3"/>
         <v>4935781.3730172254</v>
       </c>
-      <c r="G28">
+      <c r="G35" s="2"/>
+      <c r="H35" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D29*(B35/F35)</f>
         <v>2031093.3439033586</v>
       </c>
-      <c r="H28">
+      <c r="I35" s="14">
+        <f>$H35*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>17382.097566958437</v>
       </c>
-      <c r="I28">
+      <c r="J35" s="14">
+        <f>$H35*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>48794.308264746694</v>
       </c>
-      <c r="K28">
+      <c r="K35" s="3"/>
+      <c r="L35" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F29+[1]API_1975_Consumption_Fiberpulp!H29)*(B35/F35)</f>
         <v>787395.3141017555</v>
       </c>
-      <c r="L28">
+      <c r="M35" s="14">
+        <f t="shared" si="2"/>
         <v>287459.70964805811</v>
       </c>
-      <c r="M28">
+      <c r="N35" s="14">
+        <f t="shared" si="2"/>
         <v>4793.9878961243394</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+    </row>
+    <row r="36" spans="1:29">
+      <c r="A36" s="6">
+        <v>1924</v>
+      </c>
+      <c r="B36" s="16">
         <v>3723266</v>
       </c>
-      <c r="B29">
+      <c r="C36" s="15">
         <v>1522714</v>
       </c>
-      <c r="C29">
+      <c r="D36" s="15">
         <v>32100</v>
       </c>
-      <c r="D29">
+      <c r="E36" s="15">
         <v>5213880</v>
       </c>
-      <c r="E29">
+      <c r="F36" s="14">
+        <f t="shared" si="3"/>
         <v>4998206.711313081</v>
       </c>
-      <c r="G29">
+      <c r="G36" s="2"/>
+      <c r="H36" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D30*(B36/F36)</f>
         <v>1996029.4240783269</v>
       </c>
-      <c r="H29">
+      <c r="I36" s="14">
+        <f>$H36*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>17082.020528496287</v>
       </c>
-      <c r="I29">
+      <c r="J36" s="14">
+        <f>$H36*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>47951.944363526425</v>
       </c>
-      <c r="K29">
+      <c r="K36" s="3"/>
+      <c r="L36" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F30+[1]API_1975_Consumption_Fiberpulp!H30)*(B36/F36)</f>
         <v>773802.06086839596</v>
       </c>
-      <c r="L29">
+      <c r="M36" s="14">
+        <f t="shared" si="2"/>
         <v>316463.88716604153</v>
       </c>
-      <c r="M29">
+      <c r="N36" s="14">
+        <f t="shared" si="2"/>
         <v>6671.3058250137137</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+    </row>
+    <row r="37" spans="1:29">
+      <c r="A37" s="6">
+        <v>1925</v>
+      </c>
+      <c r="B37" s="16">
         <v>3962217</v>
       </c>
-      <c r="B30">
+      <c r="C37" s="12">
         <v>1663614</v>
       </c>
-      <c r="C30">
+      <c r="D37" s="12">
         <v>37995</v>
       </c>
-      <c r="D30">
+      <c r="E37" s="12">
         <v>5587836</v>
       </c>
-      <c r="E30">
+      <c r="F37" s="14">
+        <f t="shared" si="3"/>
         <v>5356693.9394302983</v>
       </c>
-      <c r="G30">
+      <c r="G37" s="2"/>
+      <c r="H37" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D31*(B37/F37)</f>
         <v>2124130.1901565334</v>
       </c>
-      <c r="H30">
+      <c r="I37" s="14">
+        <f>$H37*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>18178.306930624072</v>
       </c>
-      <c r="I30">
+      <c r="J37" s="14">
+        <f>$H37*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>51029.394391971604</v>
       </c>
-      <c r="K30">
+      <c r="K37" s="3"/>
+      <c r="L37" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F31+[1]API_1975_Consumption_Fiberpulp!H31)*(B37/F37)</f>
         <v>823462.97046941938</v>
       </c>
-      <c r="L30">
+      <c r="M37" s="14">
+        <f t="shared" si="2"/>
         <v>345746.97098985559</v>
       </c>
-      <c r="M30">
+      <c r="N37" s="14">
+        <f t="shared" si="2"/>
         <v>7896.4568480185681</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+    </row>
+    <row r="38" spans="1:29">
+      <c r="A38" s="6">
+        <v>1926</v>
+      </c>
+      <c r="B38" s="16">
         <v>4394766</v>
       </c>
-      <c r="B31">
+      <c r="C38" s="15">
         <v>1731413</v>
       </c>
-      <c r="C31">
+      <c r="D38" s="15">
         <v>34220</v>
       </c>
-      <c r="D31">
+      <c r="E38" s="15">
         <v>6091959</v>
       </c>
-      <c r="E31">
+      <c r="F38" s="14">
+        <f t="shared" si="3"/>
         <v>5839963.7810697844</v>
       </c>
-      <c r="G31">
+      <c r="G38" s="2"/>
+      <c r="H38" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D32*(B38/F38)</f>
         <v>2356018.1431944459</v>
       </c>
-      <c r="H31">
+      <c r="I38" s="14">
+        <f>$H38*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>20162.804116046907</v>
       </c>
-      <c r="I31">
+      <c r="J38" s="14">
+        <f>$H38*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>56600.193142987242</v>
       </c>
-      <c r="K31">
+      <c r="K38" s="3"/>
+      <c r="L38" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F32+[1]API_1975_Consumption_Fiberpulp!H32)*(B38/F38)</f>
         <v>913359.12820474186</v>
       </c>
-      <c r="L31">
+      <c r="M38" s="14">
+        <f t="shared" si="2"/>
         <v>359837.55864188372</v>
       </c>
-      <c r="M31">
+      <c r="N38" s="14">
+        <f t="shared" si="2"/>
         <v>7111.9029698432787</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+    </row>
+    <row r="39" spans="1:29">
+      <c r="A39" s="6">
+        <v>1927</v>
+      </c>
+      <c r="B39" s="16">
         <v>4313403</v>
       </c>
-      <c r="B32">
+      <c r="C39" s="12">
         <v>1675768</v>
       </c>
-      <c r="C32">
+      <c r="D39" s="12">
         <v>32006</v>
       </c>
-      <c r="D32">
+      <c r="E39" s="12">
         <v>5957165</v>
       </c>
-      <c r="E32">
+      <c r="F39" s="14">
+        <f t="shared" si="3"/>
         <v>5710745.564416402</v>
       </c>
-      <c r="G32">
+      <c r="G39" s="2"/>
+      <c r="H39" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D33*(B39/F39)</f>
         <v>2312399.7334350343</v>
       </c>
-      <c r="H32">
+      <c r="I39" s="14">
+        <f>$H39*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>19789.517749652445</v>
       </c>
-      <c r="I32">
+      <c r="J39" s="14">
+        <f>$H39*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>55552.319032126077</v>
       </c>
-      <c r="K32">
+      <c r="K39" s="3"/>
+      <c r="L39" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F33+[1]API_1975_Consumption_Fiberpulp!H33)*(B39/F39)</f>
         <v>896449.55014117213</v>
       </c>
-      <c r="L32">
+      <c r="M39" s="14">
+        <f t="shared" si="2"/>
         <v>348272.92273431714</v>
       </c>
-      <c r="M32">
+      <c r="N39" s="14">
+        <f t="shared" si="2"/>
         <v>6651.769913875044</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="1:29">
+      <c r="A40" s="6">
+        <v>1928</v>
+      </c>
+      <c r="B40" s="16">
         <v>4510800</v>
       </c>
-      <c r="B33">
+      <c r="C40" s="12">
         <v>1754963</v>
       </c>
-      <c r="C33">
+      <c r="D40" s="12">
         <v>33484</v>
       </c>
-      <c r="D33">
+      <c r="E40" s="12">
         <v>6232279</v>
       </c>
-      <c r="E33">
+      <c r="F40" s="14">
+        <f t="shared" si="3"/>
         <v>5974479.4135222863</v>
       </c>
-      <c r="G33">
+      <c r="G40" s="2"/>
+      <c r="H40" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D34*(B40/F40)</f>
         <v>2418223.5505420556</v>
       </c>
-      <c r="H33">
+      <c r="I40" s="14">
+        <f>$H40*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>20695.158014480043</v>
       </c>
-      <c r="I33">
+      <c r="J40" s="14">
+        <f>$H40*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>58094.595077277583</v>
       </c>
-      <c r="K33">
+      <c r="K40" s="3"/>
+      <c r="L40" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F34+[1]API_1975_Consumption_Fiberpulp!H34)*(B40/F40)</f>
         <v>937474.34004585224</v>
       </c>
-      <c r="L33">
+      <c r="M40" s="14">
+        <f t="shared" si="2"/>
         <v>364731.9278686461</v>
       </c>
-      <c r="M33">
+      <c r="N40" s="14">
+        <f t="shared" si="2"/>
         <v>6958.9409422043354</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="1:29">
+      <c r="A41" s="6">
+        <v>1929</v>
+      </c>
+      <c r="B41" s="16">
         <v>4862885</v>
       </c>
-      <c r="B34">
+      <c r="C41" s="12">
         <v>1880728</v>
       </c>
-      <c r="C34">
+      <c r="D41" s="12">
         <v>54067</v>
       </c>
-      <c r="D34">
+      <c r="E41" s="12">
         <v>6689546</v>
       </c>
-      <c r="E34">
+      <c r="F41" s="2">
         <v>6289318</v>
       </c>
-      <c r="G34">
+      <c r="G41" s="2"/>
+      <c r="H41" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D35*(B41/F41)</f>
         <v>2970579.9774586051</v>
       </c>
-      <c r="H34">
+      <c r="I41" s="14">
+        <f>$H41*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>25422.224514510304</v>
       </c>
-      <c r="I34">
+      <c r="J41" s="14">
+        <f>$H41*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>71364.221432895501</v>
       </c>
-      <c r="K34">
+      <c r="K41" s="3"/>
+      <c r="L41" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F35+[1]API_1975_Consumption_Fiberpulp!H35)*(B41/F41)</f>
         <v>1116099.0037751312</v>
       </c>
-      <c r="L34">
+      <c r="M41" s="14">
+        <f t="shared" si="2"/>
         <v>431652.94823381485</v>
       </c>
-      <c r="M34">
+      <c r="N41" s="14">
+        <f t="shared" si="2"/>
         <v>12409.120272659135</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+    </row>
+    <row r="42" spans="1:29">
+      <c r="A42" s="6">
+        <v>1930</v>
+      </c>
+      <c r="B42" s="16">
         <v>4630308</v>
       </c>
-      <c r="B35">
+      <c r="C42" s="2">
         <v>1830217</v>
       </c>
-      <c r="C35">
+      <c r="D42" s="2">
         <v>48426</v>
       </c>
-      <c r="D35">
+      <c r="E42" s="2">
         <v>6412099</v>
       </c>
-      <c r="E35">
+      <c r="F42" s="14">
+        <f>E42*AVERAGE(F$47/E$47,F$41/E$41)</f>
         <v>6102875.9354953906</v>
       </c>
-      <c r="G35">
+      <c r="G42" s="2"/>
+      <c r="H42" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D36*(B42/F42)</f>
         <v>2703469.2962260833</v>
       </c>
-      <c r="H35">
+      <c r="I42" s="14">
+        <f>$H42*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>23136.291208541406</v>
       </c>
-      <c r="I35">
+      <c r="J42" s="14">
+        <f>$H42*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>64947.24362141866</v>
       </c>
-      <c r="K35">
+      <c r="K42" s="3"/>
+      <c r="L42" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F36+[1]API_1975_Consumption_Fiberpulp!H36)*(B42/F42)</f>
         <v>879575.17896364839</v>
       </c>
-      <c r="L35">
+      <c r="M42" s="14">
+        <f t="shared" si="2"/>
         <v>347668.76098033041</v>
       </c>
-      <c r="M35">
+      <c r="N42" s="14">
+        <f t="shared" si="2"/>
         <v>9199.0225307892342</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+    </row>
+    <row r="43" spans="1:29">
+      <c r="A43" s="6">
+        <v>1931</v>
+      </c>
+      <c r="B43" s="16">
         <v>4409344</v>
       </c>
-      <c r="B36">
+      <c r="C43" s="2">
         <v>1596421</v>
       </c>
-      <c r="C36">
+      <c r="D43" s="2">
         <v>53308</v>
       </c>
-      <c r="D36">
+      <c r="E43" s="2">
         <v>5952457</v>
       </c>
-      <c r="E36">
+      <c r="F43" s="14">
+        <f>E43*AVERAGE(F$47/E$47,F$41/E$41)</f>
         <v>5665400.1415715953</v>
       </c>
-      <c r="G36">
+      <c r="G43" s="2"/>
+      <c r="H43" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D37*(B43/F43)</f>
         <v>2574456.4120785706</v>
       </c>
-      <c r="H36">
+      <c r="I43" s="14">
+        <f>$H43*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>22032.198899648749</v>
       </c>
-      <c r="I36">
+      <c r="J43" s="14">
+        <f>$H43*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>61847.881173053851</v>
       </c>
-      <c r="K36">
+      <c r="K43" s="3"/>
+      <c r="L43" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F37+[1]API_1975_Consumption_Fiberpulp!H37)*(B43/F43)</f>
         <v>837600.76822368801</v>
       </c>
-      <c r="L36">
+      <c r="M43" s="14">
+        <f t="shared" si="2"/>
         <v>303256.7783344707</v>
       </c>
-      <c r="M36">
+      <c r="N43" s="14">
+        <f t="shared" si="2"/>
         <v>10126.409223791194</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+    </row>
+    <row r="44" spans="1:29">
+      <c r="A44" s="6">
+        <v>1932</v>
+      </c>
+      <c r="B44" s="2">
         <v>3760267</v>
       </c>
-      <c r="B37">
+      <c r="C44" s="2">
         <v>1481760</v>
       </c>
-      <c r="C37">
+      <c r="D44" s="2">
         <v>47860</v>
       </c>
-      <c r="D37">
+      <c r="E44" s="2">
         <v>5194167</v>
       </c>
-      <c r="E37">
+      <c r="F44" s="14">
+        <f>E44*AVERAGE(F$47/E$47,F$41/E$41)</f>
         <v>4943678.6283624573</v>
       </c>
-      <c r="G37">
+      <c r="G44" s="2"/>
+      <c r="H44" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D38*(B44/F44)</f>
         <v>2195483.8382483767</v>
       </c>
-      <c r="H37">
+      <c r="I44" s="14">
+        <f>$H44*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>18788.9514766336</v>
       </c>
-      <c r="I37">
+      <c r="J44" s="14">
+        <f>$H44*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>52743.570607091591</v>
       </c>
-      <c r="K37">
+      <c r="K44" s="3"/>
+      <c r="L44" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F38+[1]API_1975_Consumption_Fiberpulp!H38)*(B44/F44)</f>
         <v>714301.83898697468</v>
       </c>
-      <c r="L37">
+      <c r="M44" s="14">
+        <f t="shared" si="2"/>
         <v>281475.72843559767</v>
       </c>
-      <c r="M37">
+      <c r="N44" s="14">
+        <f t="shared" si="2"/>
         <v>9091.5049420470968</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+    </row>
+    <row r="45" spans="1:29">
+      <c r="A45" s="6">
+        <v>1933</v>
+      </c>
+      <c r="B45" s="2">
         <v>4276204</v>
       </c>
-      <c r="B38">
+      <c r="C45" s="2">
         <v>1941576</v>
       </c>
-      <c r="C38">
+      <c r="D45" s="2">
         <v>79193</v>
       </c>
-      <c r="D38">
+      <c r="E45" s="2">
         <v>6138587</v>
       </c>
-      <c r="E38">
+      <c r="F45" s="14">
+        <f>E45*AVERAGE(F$47/E$47,F$41/E$41)</f>
         <v>5842554.0342163844</v>
       </c>
-      <c r="G38">
+      <c r="G45" s="2"/>
+      <c r="H45" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D39*(B45/F45)</f>
         <v>2496720.7836712291</v>
       </c>
-      <c r="H38">
+      <c r="I45" s="14">
+        <f>$H45*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>21366.937363805948</v>
       </c>
-      <c r="I38">
+      <c r="J45" s="14">
+        <f>$H45*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>59980.386393925619</v>
       </c>
-      <c r="K38">
+      <c r="K45" s="3"/>
+      <c r="L45" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F39+[1]API_1975_Consumption_Fiberpulp!H39)*(B45/F45)</f>
         <v>812309.4400167478</v>
       </c>
-      <c r="L38">
+      <c r="M45" s="14">
+        <f t="shared" si="2"/>
         <v>368822.56162473944</v>
       </c>
-      <c r="M38">
+      <c r="N45" s="14">
+        <f t="shared" si="2"/>
         <v>15043.534284904628</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+    </row>
+    <row r="46" spans="1:29">
+      <c r="A46" s="6">
+        <v>1934</v>
+      </c>
+      <c r="B46" s="2">
         <v>4436128</v>
       </c>
-      <c r="B39">
+      <c r="C46" s="2">
         <v>1805972</v>
       </c>
-      <c r="C39">
+      <c r="D46" s="2">
         <v>142932</v>
       </c>
-      <c r="D39">
+      <c r="E46" s="2">
         <v>6099168</v>
       </c>
-      <c r="E39">
+      <c r="F46" s="14">
+        <f>E46*AVERAGE(F$47/E$47,F$41/E$41)</f>
         <v>5805036.0129722813</v>
       </c>
-      <c r="G39">
+      <c r="G46" s="2"/>
+      <c r="H46" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D40*(B46/F46)</f>
         <v>2590094.6205152706</v>
       </c>
-      <c r="H39">
+      <c r="I46" s="14">
+        <f>$H46*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>22166.030693069311</v>
       </c>
-      <c r="I39">
+      <c r="J46" s="14">
+        <f>$H46*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>62223.568270576536</v>
       </c>
-      <c r="K39">
+      <c r="K46" s="3"/>
+      <c r="L46" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F40+[1]API_1975_Consumption_Fiberpulp!H40)*(B46/F46)</f>
         <v>842688.66768812155</v>
       </c>
-      <c r="L39">
+      <c r="M46" s="14">
+        <f t="shared" si="2"/>
         <v>343063.17098200327</v>
       </c>
-      <c r="M39">
+      <c r="N46" s="14">
+        <f t="shared" si="2"/>
         <v>27151.42048425983</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
+    </row>
+    <row r="47" spans="1:29">
+      <c r="A47" s="6">
+        <v>1935</v>
+      </c>
+      <c r="B47" s="2">
         <v>4925669</v>
       </c>
-      <c r="B40">
+      <c r="C47" s="2">
         <v>1933249</v>
       </c>
-      <c r="C40">
+      <c r="D47" s="2">
         <v>171853</v>
       </c>
-      <c r="D40">
+      <c r="E47" s="2">
         <v>6687065</v>
       </c>
-      <c r="E40">
+      <c r="F47" s="2">
         <v>6442178</v>
       </c>
-      <c r="G40">
+      <c r="G47" s="2"/>
+      <c r="H47" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D41*(B47/F47)</f>
         <v>2742907.0904141427</v>
       </c>
-      <c r="H40">
+      <c r="I47" s="14">
+        <f>$H47*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>23473.799865374018</v>
       </c>
-      <c r="I40">
+      <c r="J47" s="14">
+        <f>$H47*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>65894.684019798195</v>
       </c>
-      <c r="K40">
+      <c r="K47" s="3"/>
+      <c r="L47" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F41+[1]API_1975_Consumption_Fiberpulp!H41)*(B47/F47)</f>
         <v>740855.35231733741</v>
       </c>
-      <c r="L40">
+      <c r="M47" s="14">
+        <f t="shared" si="2"/>
         <v>290774.28244003811</v>
       </c>
-      <c r="M40">
+      <c r="N47" s="14">
+        <f t="shared" si="2"/>
         <v>25847.903068962081</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+    </row>
+    <row r="48" spans="1:29">
+      <c r="A48" s="6">
+        <v>1936</v>
+      </c>
+      <c r="B48" s="2">
         <v>5695219</v>
       </c>
-      <c r="B41">
+      <c r="C48" s="2">
         <v>2277500</v>
       </c>
-      <c r="C41">
+      <c r="D48" s="2">
         <v>193485</v>
       </c>
-      <c r="D41">
+      <c r="E48" s="2">
         <v>7779234</v>
       </c>
-      <c r="E41">
+      <c r="F48" s="14">
+        <f>E48*AVERAGE(F$47/E$47,F$51/E$51)</f>
         <v>7536117.4070966374</v>
       </c>
-      <c r="G41">
+      <c r="G48" s="2"/>
+      <c r="H48" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D42*(B48/F48)</f>
         <v>3023035.6854187651</v>
       </c>
-      <c r="H41">
+      <c r="I48" s="14">
+        <f>$H48*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>25871.140482082283</v>
       </c>
-      <c r="I41">
+      <c r="J48" s="14">
+        <f>$H48*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>72624.399844752566</v>
       </c>
-      <c r="K41">
+      <c r="K48" s="3"/>
+      <c r="L48" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F42+[1]API_1975_Consumption_Fiberpulp!H42)*(B48/F48)</f>
         <v>810356.00285424071</v>
       </c>
-      <c r="L41">
+      <c r="M48" s="14">
+        <f t="shared" si="2"/>
         <v>324058.79326159949</v>
       </c>
-      <c r="M41">
+      <c r="N48" s="14">
+        <f t="shared" si="2"/>
         <v>27530.413002950856</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+    </row>
+    <row r="49" spans="1:29">
+      <c r="A49" s="6">
+        <v>1937</v>
+      </c>
+      <c r="B49" s="2">
         <v>6572918</v>
       </c>
-      <c r="B42">
+      <c r="C49" s="2">
         <v>2394605</v>
       </c>
-      <c r="C42">
+      <c r="D49" s="2">
         <v>322544</v>
       </c>
-      <c r="D42">
+      <c r="E49" s="2">
         <v>8644979</v>
       </c>
-      <c r="E42">
+      <c r="F49" s="14">
+        <f>E49*AVERAGE(F$47/E$47,F$51/E$51)</f>
         <v>8374806.147479929</v>
       </c>
-      <c r="G42">
+      <c r="G49" s="2"/>
+      <c r="H49" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D43*(B49/F49)</f>
         <v>3488920.3859116458</v>
       </c>
-      <c r="H42">
+      <c r="I49" s="14">
+        <f>$H49*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>29858.181916306872</v>
       </c>
-      <c r="I42">
+      <c r="J49" s="14">
+        <f>$H49*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>83816.658319683804</v>
       </c>
-      <c r="K42">
+      <c r="K49" s="3"/>
+      <c r="L49" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F43+[1]API_1975_Consumption_Fiberpulp!H43)*(B49/F49)</f>
         <v>935241.21856748452</v>
       </c>
-      <c r="L42">
+      <c r="M49" s="14">
+        <f t="shared" si="2"/>
         <v>340721.32014849287</v>
       </c>
-      <c r="M42">
+      <c r="N49" s="14">
+        <f t="shared" si="2"/>
         <v>45893.839479152288</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+    </row>
+    <row r="50" spans="1:29">
+      <c r="A50" s="6">
+        <v>1938</v>
+      </c>
+      <c r="B50" s="2">
         <v>5933560</v>
       </c>
-      <c r="B43">
+      <c r="C50" s="2">
         <v>1710393</v>
       </c>
-      <c r="C43">
+      <c r="D50" s="2">
         <v>140484</v>
       </c>
-      <c r="D43">
+      <c r="E50" s="2">
         <v>7503469</v>
       </c>
-      <c r="E43">
+      <c r="F50" s="14">
+        <f>E50*AVERAGE(F$47/E$47,F$51/E$51)</f>
         <v>7268970.613881778</v>
       </c>
-      <c r="G43">
+      <c r="G50" s="2"/>
+      <c r="H50" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D44*(B50/F50)</f>
         <v>3149547.6506826808</v>
       </c>
-      <c r="H43">
+      <c r="I50" s="14">
+        <f>$H50*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>26953.829926270464</v>
       </c>
-      <c r="I43">
+      <c r="J50" s="14">
+        <f>$H50*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>75663.681052972679</v>
       </c>
-      <c r="K43">
+      <c r="K50" s="3"/>
+      <c r="L50" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F44+[1]API_1975_Consumption_Fiberpulp!H44)*(B50/F50)</f>
         <v>844268.84449848335</v>
       </c>
-      <c r="L43">
+      <c r="M50" s="14">
+        <f t="shared" si="2"/>
         <v>243366.80201233231</v>
       </c>
-      <c r="M43">
+      <c r="N50" s="14">
+        <f t="shared" si="2"/>
         <v>19989.056207491783</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="3"/>
+    </row>
+    <row r="51" spans="1:29">
+      <c r="A51" s="6">
+        <v>1939</v>
+      </c>
+      <c r="B51" s="2">
         <v>6993334</v>
       </c>
-      <c r="B44">
+      <c r="C51" s="2">
         <v>2026441</v>
       </c>
-      <c r="C44">
+      <c r="D51" s="2">
         <v>139504</v>
       </c>
-      <c r="D44">
+      <c r="E51" s="2">
         <v>8880271</v>
       </c>
-      <c r="E44">
+      <c r="F51" s="2">
         <v>8650423</v>
       </c>
-      <c r="G44">
+      <c r="G51" s="2"/>
+      <c r="H51" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D45*(B51/F51)</f>
         <v>3529849.7577330032</v>
       </c>
-      <c r="H44">
+      <c r="I51" s="14">
+        <f>$H51*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>30208.455495061215</v>
       </c>
-      <c r="I44">
+      <c r="J51" s="14">
+        <f>$H51*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>84799.931881053315</v>
       </c>
-      <c r="K44">
+      <c r="K51" s="3"/>
+      <c r="L51" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F45+[1]API_1975_Consumption_Fiberpulp!H45)*(B51/F51)</f>
         <v>938275.2065497837</v>
       </c>
-      <c r="L44">
+      <c r="M51" s="14">
+        <f t="shared" si="2"/>
         <v>271881.67300974758</v>
       </c>
-      <c r="M44">
+      <c r="N51" s="14">
+        <f t="shared" si="2"/>
         <v>18716.844414198011</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="3"/>
+    </row>
+    <row r="52" spans="1:29">
+      <c r="A52" s="6">
+        <v>1940</v>
+      </c>
+      <c r="B52" s="2">
         <v>8959559</v>
       </c>
-      <c r="B45">
+      <c r="C52" s="2">
         <v>1224570</v>
       </c>
-      <c r="C45">
+      <c r="D52" s="2">
         <v>480938</v>
       </c>
-      <c r="D45">
+      <c r="E52" s="2">
         <v>9703191</v>
       </c>
-      <c r="E45">
+      <c r="F52" s="2">
         <v>9781739</v>
       </c>
-      <c r="G45">
+      <c r="G52" s="2"/>
+      <c r="H52" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D46*(B52/F52)</f>
         <v>4275186.6055328203</v>
       </c>
-      <c r="H45">
+      <c r="I52" s="14">
+        <f>$H52*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>36587.048506354207</v>
       </c>
-      <c r="I45">
+      <c r="J52" s="14">
+        <f>$H52*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>102705.65542733129</v>
       </c>
-      <c r="K45">
+      <c r="K52" s="3"/>
+      <c r="L52" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F46+[1]API_1975_Consumption_Fiberpulp!H46)*(B52/F52)</f>
         <v>955852.54390379868</v>
       </c>
-      <c r="L45">
+      <c r="M52" s="14">
+        <f t="shared" si="2"/>
         <v>130643.52271002119</v>
       </c>
-      <c r="M45">
+      <c r="N52" s="14">
+        <f t="shared" si="2"/>
         <v>51308.977457484805</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="3"/>
+    </row>
+    <row r="53" spans="1:29">
+      <c r="A53" s="6">
+        <v>1941</v>
+      </c>
+      <c r="B53" s="2">
         <v>10375422</v>
       </c>
-      <c r="B46">
+      <c r="C53" s="2">
         <v>1157886</v>
       </c>
-      <c r="C46">
+      <c r="D53" s="2">
         <v>328608</v>
       </c>
-      <c r="D46">
+      <c r="E53" s="2">
         <v>11204700</v>
       </c>
-      <c r="E46">
+      <c r="F53" s="2">
         <v>11363600</v>
       </c>
-      <c r="G46">
+      <c r="G53" s="2"/>
+      <c r="H53" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D47*(B53/F53)</f>
         <v>5546836.1328661693</v>
       </c>
-      <c r="H46">
+      <c r="I53" s="14">
+        <f>$H53*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>47469.825618215284</v>
       </c>
-      <c r="I46">
+      <c r="J53" s="14">
+        <f>$H53*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>133255.33903870903</v>
       </c>
-      <c r="K46">
+      <c r="K53" s="3"/>
+      <c r="L53" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F47+[1]API_1975_Consumption_Fiberpulp!H47)*(B53/F53)</f>
         <v>1294286.3251129924</v>
       </c>
-      <c r="L46">
+      <c r="M53" s="14">
+        <f t="shared" si="2"/>
         <v>144440.96980727938</v>
       </c>
-      <c r="M46">
+      <c r="N53" s="14">
+        <f t="shared" si="2"/>
         <v>40992.341393220464</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="3"/>
+    </row>
+    <row r="54" spans="1:29">
+      <c r="A54" s="6">
+        <v>1942</v>
+      </c>
+      <c r="B54" s="2">
         <v>10783430</v>
       </c>
-      <c r="B47">
+      <c r="C54" s="2">
         <v>1236519</v>
       </c>
-      <c r="C47">
+      <c r="D54" s="2">
         <v>378148</v>
       </c>
-      <c r="D47">
+      <c r="E54" s="2">
         <v>11641801</v>
       </c>
-      <c r="E47">
+      <c r="F54" s="2">
         <v>11038020</v>
       </c>
-      <c r="G47">
+      <c r="G54" s="2"/>
+      <c r="H54" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D48*(B54/F54)</f>
         <v>5368218.7321068449</v>
       </c>
-      <c r="H47">
+      <c r="I54" s="14">
+        <f>$H54*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>45941.217838334334</v>
       </c>
-      <c r="I47">
+      <c r="J54" s="14">
+        <f>$H54*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>128964.29424736096</v>
       </c>
-      <c r="K47">
+      <c r="K54" s="3"/>
+      <c r="L54" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F48+[1]API_1975_Consumption_Fiberpulp!H48)*(B54/F54)</f>
         <v>1294391.2370089926</v>
       </c>
-      <c r="L47">
+      <c r="M54" s="14">
+        <f t="shared" si="2"/>
         <v>148425.81238020951</v>
       </c>
-      <c r="M47">
+      <c r="N54" s="14">
+        <f t="shared" si="2"/>
         <v>45391.072923223554</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="3"/>
+    </row>
+    <row r="55" spans="1:29">
+      <c r="A55" s="6">
+        <v>1943</v>
+      </c>
+      <c r="B55" s="2">
         <v>9680462</v>
       </c>
-      <c r="B48">
+      <c r="C55" s="2">
         <v>1305549</v>
       </c>
-      <c r="C48">
+      <c r="D55" s="2">
         <v>300700</v>
       </c>
-      <c r="D48">
+      <c r="E55" s="2">
         <v>10685311</v>
       </c>
-      <c r="E48">
+      <c r="F55" s="2">
         <v>10635320</v>
       </c>
-      <c r="G48">
+      <c r="G55" s="2"/>
+      <c r="H55" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D49*(B55/F55)</f>
         <v>5796136.7094312161</v>
       </c>
-      <c r="H48">
+      <c r="I55" s="14">
+        <f>$H55*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>49603.340042040218</v>
       </c>
-      <c r="I48">
+      <c r="J55" s="14">
+        <f>$H55*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>139244.45284286159</v>
       </c>
-      <c r="K48">
+      <c r="K55" s="3"/>
+      <c r="L55" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F49+[1]API_1975_Consumption_Fiberpulp!H49)*(B55/F55)</f>
         <v>1088864.9251565537</v>
       </c>
-      <c r="L48">
+      <c r="M55" s="14">
+        <f t="shared" si="2"/>
         <v>146849.03614860671</v>
       </c>
-      <c r="M48">
+      <c r="N55" s="14">
+        <f t="shared" si="2"/>
         <v>33822.939751695289</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="1:29">
+      <c r="A56" s="6">
+        <v>1944</v>
+      </c>
+      <c r="B56" s="2">
         <v>10108443</v>
       </c>
-      <c r="B49">
+      <c r="C56" s="2">
         <v>1071864</v>
       </c>
-      <c r="C49">
+      <c r="D56" s="2">
         <v>218401</v>
       </c>
-      <c r="D49">
+      <c r="E56" s="2">
         <v>10961906</v>
       </c>
-      <c r="E49">
+      <c r="F56" s="2">
         <v>10502204</v>
       </c>
-      <c r="G49">
+      <c r="G56" s="2"/>
+      <c r="H56" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D50*(B56/F56)</f>
         <v>6602153.8469521254</v>
       </c>
-      <c r="H49">
+      <c r="I56" s="14">
+        <f>$H56*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>56501.234994570586</v>
       </c>
-      <c r="I49">
+      <c r="J56" s="14">
+        <f>$H56*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>158607.93940684263</v>
       </c>
-      <c r="K49">
+      <c r="K56" s="3"/>
+      <c r="L56" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F50+[1]API_1975_Consumption_Fiberpulp!H50)*(B56/F56)</f>
         <v>1333289.4755346593</v>
       </c>
-      <c r="L49">
+      <c r="M56" s="14">
+        <f t="shared" si="2"/>
         <v>141377.36052965646</v>
       </c>
-      <c r="M49">
+      <c r="N56" s="14">
+        <f t="shared" si="2"/>
         <v>28806.78604471976</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="1:29">
+      <c r="A57" s="6">
+        <v>1945</v>
+      </c>
+      <c r="B57" s="2">
         <v>10167200</v>
       </c>
-      <c r="B50">
+      <c r="C57" s="12">
         <v>1754065</v>
       </c>
-      <c r="C50">
+      <c r="D57" s="12">
         <v>135362</v>
       </c>
-      <c r="D50">
+      <c r="E57" s="12">
         <v>11785903</v>
       </c>
-      <c r="E50">
+      <c r="F57" s="2">
         <v>10825412</v>
       </c>
-      <c r="G50">
+      <c r="G57" s="2"/>
+      <c r="H57" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D51*(B57/F57)</f>
         <v>6386245.345451979</v>
       </c>
-      <c r="H50">
+      <c r="I57" s="14">
+        <f>$H57*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>54653.489961149855</v>
       </c>
-      <c r="I50">
+      <c r="J57" s="14">
+        <f>$H57*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>153421.02566366069</v>
       </c>
-      <c r="K50">
+      <c r="K57" s="3"/>
+      <c r="L57" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F51+[1]API_1975_Consumption_Fiberpulp!H51)*(B57/F57)</f>
         <v>1261845.6664005029</v>
       </c>
-      <c r="L50">
+      <c r="M57" s="14">
+        <f t="shared" si="2"/>
         <v>217696.05386289227</v>
       </c>
-      <c r="M50">
+      <c r="N57" s="14">
+        <f t="shared" si="2"/>
         <v>16799.704254396969</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="3"/>
+    </row>
+    <row r="58" spans="1:29">
+      <c r="A58" s="6">
+        <v>1946</v>
+      </c>
+      <c r="B58" s="2">
         <v>10606527</v>
       </c>
-      <c r="B51">
+      <c r="C58" s="12">
         <v>1805488</v>
       </c>
-      <c r="C51">
+      <c r="D58" s="12">
         <v>39361</v>
       </c>
-      <c r="D51">
+      <c r="E58" s="12">
         <v>12372654</v>
       </c>
-      <c r="E51">
+      <c r="F58" s="2">
         <v>12092093</v>
       </c>
-      <c r="G51">
+      <c r="G58" s="2"/>
+      <c r="H58" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D52*(B58/F58)</f>
         <v>6383951.2596470276</v>
       </c>
-      <c r="H51">
+      <c r="I58" s="14">
+        <f>$H58*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>54633.857174006749</v>
       </c>
-      <c r="I51">
+      <c r="J58" s="14">
+        <f>$H58*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>153365.91331233102</v>
       </c>
-      <c r="K51">
+      <c r="K58" s="3"/>
+      <c r="L58" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F52+[1]API_1975_Consumption_Fiberpulp!H52)*(B58/F58)</f>
         <v>1212444.2491094801</v>
       </c>
-      <c r="L51">
+      <c r="M58" s="14">
+        <f t="shared" si="2"/>
         <v>206387.40111972345</v>
       </c>
-      <c r="M51">
+      <c r="N58" s="14">
+        <f t="shared" si="2"/>
         <v>4499.4009904654222</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3"/>
+      <c r="AC58" s="3"/>
+    </row>
+    <row r="59" spans="1:29">
+      <c r="A59" s="6">
+        <v>1947</v>
+      </c>
+      <c r="B59" s="2">
         <v>11945864</v>
       </c>
-      <c r="B52">
+      <c r="C59" s="12">
         <v>2322460</v>
       </c>
-      <c r="C52">
+      <c r="D59" s="12">
         <v>130096</v>
       </c>
-      <c r="D52">
+      <c r="E59" s="12">
         <v>14138228</v>
       </c>
-      <c r="E52">
+      <c r="F59" s="2">
         <v>13252924</v>
       </c>
-      <c r="G52">
+      <c r="G59" s="17"/>
+      <c r="H59" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D53*(B59/F59)</f>
         <v>7219165.0658321138</v>
       </c>
-      <c r="H52">
+      <c r="I59" s="14">
+        <f>$H59*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>61781.617227456387</v>
       </c>
-      <c r="I52">
+      <c r="J59" s="14">
+        <f>$H59*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>173430.81089485521</v>
       </c>
-      <c r="K52">
+      <c r="K59" s="3"/>
+      <c r="L59" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F53+[1]API_1975_Consumption_Fiberpulp!H53)*(B59/F59)</f>
         <v>1375092.8383303187</v>
       </c>
-      <c r="L52">
+      <c r="M59" s="14">
+        <f t="shared" si="2"/>
         <v>267339.23249993735</v>
       </c>
-      <c r="M52">
+      <c r="N59" s="14">
+        <f t="shared" si="2"/>
         <v>14975.398840587935</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="3"/>
+    </row>
+    <row r="60" spans="1:29">
+      <c r="A60" s="6">
+        <v>1948</v>
+      </c>
+      <c r="B60" s="2">
         <v>12872292</v>
       </c>
-      <c r="B53">
+      <c r="C60" s="12">
         <v>2176111</v>
       </c>
-      <c r="C53">
+      <c r="D60" s="12">
         <v>93727</v>
       </c>
-      <c r="D53">
+      <c r="E60" s="12">
         <v>14954676</v>
       </c>
-      <c r="E53">
+      <c r="F60" s="2">
         <v>14374586</v>
       </c>
-      <c r="G53">
+      <c r="G60" s="2"/>
+      <c r="H60" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D54*(B60/F60)</f>
         <v>6791841.6256504357</v>
       </c>
-      <c r="H53">
+      <c r="I60" s="14">
+        <f>$H60*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>58124.583072831301</v>
       </c>
-      <c r="I53">
+      <c r="J60" s="14">
+        <f>$H60*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>163164.9352611409</v>
       </c>
-      <c r="K53">
+      <c r="K60" s="3"/>
+      <c r="L60" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F54+[1]API_1975_Consumption_Fiberpulp!H54)*(B60/F60)</f>
         <v>1299992.9711995879</v>
       </c>
-      <c r="L53">
+      <c r="M60" s="14">
+        <f t="shared" si="2"/>
         <v>219768.86513684635</v>
       </c>
-      <c r="M53">
+      <c r="N60" s="14">
+        <f t="shared" si="2"/>
         <v>9465.6368276623762</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="3"/>
+      <c r="AC60" s="3"/>
+    </row>
+    <row r="61" spans="1:29">
+      <c r="A61" s="6">
+        <v>1949</v>
+      </c>
+      <c r="B61" s="2">
         <v>12207279</v>
       </c>
-      <c r="B54">
+      <c r="C61" s="12">
         <v>1763102</v>
       </c>
-      <c r="C54">
+      <c r="D61" s="12">
         <v>122133</v>
       </c>
-      <c r="D54">
+      <c r="E61" s="12">
         <v>13848248</v>
       </c>
-      <c r="E54">
+      <c r="F61" s="2">
         <v>13635957</v>
       </c>
-      <c r="G54">
+      <c r="G61" s="2"/>
+      <c r="H61" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D55*(B61/F61)</f>
         <v>5908146.5079476275</v>
       </c>
-      <c r="H54">
+      <c r="I61" s="14">
+        <f>$H61*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>50561.919937992185</v>
       </c>
-      <c r="I54">
+      <c r="J61" s="14">
+        <f>$H61*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>141935.3388397496</v>
       </c>
-      <c r="K54">
+      <c r="K61" s="3"/>
+      <c r="L61" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F55+[1]API_1975_Consumption_Fiberpulp!H55)*(B61/F61)</f>
         <v>1087780.6693605003</v>
       </c>
-      <c r="L54">
+      <c r="M61" s="14">
+        <f t="shared" si="2"/>
         <v>157108.58035691959</v>
       </c>
-      <c r="M54">
+      <c r="N61" s="14">
+        <f t="shared" si="2"/>
         <v>10883.171957567774</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
+      <c r="AA61" s="3"/>
+      <c r="AB61" s="3"/>
+      <c r="AC61" s="3"/>
+    </row>
+    <row r="62" spans="1:29">
+      <c r="A62" s="6">
+        <v>1950</v>
+      </c>
+      <c r="B62" s="2">
         <v>14848951</v>
       </c>
-      <c r="B55">
+      <c r="C62" s="12">
         <v>2385181</v>
       </c>
-      <c r="C55">
+      <c r="D62" s="12">
         <v>95673</v>
       </c>
-      <c r="D55">
+      <c r="E62" s="12">
         <v>17138459</v>
       </c>
-      <c r="E55">
+      <c r="F62" s="2">
         <v>16508905</v>
       </c>
-      <c r="G55">
+      <c r="G62" s="2"/>
+      <c r="H62" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D56*(B62/F62)</f>
         <v>7156064.4826677479</v>
       </c>
-      <c r="H55">
+      <c r="I62" s="14">
+        <f>$H62*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>61241.602414061788</v>
       </c>
-      <c r="I55">
+      <c r="J62" s="14">
+        <f>$H62*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>171914.9035556631</v>
       </c>
-      <c r="K55">
+      <c r="K62" s="3"/>
+      <c r="L62" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F56+[1]API_1975_Consumption_Fiberpulp!H56)*(B62/F62)</f>
         <v>1294613.99374689</v>
       </c>
-      <c r="L55">
+      <c r="M62" s="14">
+        <f t="shared" si="2"/>
         <v>207953.32277810067</v>
       </c>
-      <c r="M55">
+      <c r="N62" s="14">
+        <f t="shared" si="2"/>
         <v>8341.3033434985555</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
+      <c r="AC62" s="3"/>
+    </row>
+    <row r="63" spans="1:29">
+      <c r="A63" s="6">
+        <v>1951</v>
+      </c>
+      <c r="B63" s="2">
         <v>16524408</v>
       </c>
-      <c r="B56">
+      <c r="C63" s="12">
         <v>2360706</v>
       </c>
-      <c r="C56">
+      <c r="D63" s="12">
         <v>201908</v>
       </c>
-      <c r="D56">
+      <c r="E63" s="12">
         <v>18683206</v>
       </c>
-      <c r="E56">
+      <c r="F63" s="2">
         <v>17736970</v>
       </c>
-      <c r="G56">
+      <c r="G63" s="2"/>
+      <c r="H63" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D57*(B63/F63)</f>
         <v>8450458.8484973479</v>
       </c>
-      <c r="H56">
+      <c r="I63" s="14">
+        <f>$H63*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>72319.029861946692</v>
       </c>
-      <c r="I56">
+      <c r="J63" s="14">
+        <f>$H63*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>203011.00157204556</v>
       </c>
-      <c r="K56">
+      <c r="K63" s="3"/>
+      <c r="L63" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F57+[1]API_1975_Consumption_Fiberpulp!H57)*(B63/F63)</f>
         <v>1357396.1902633877</v>
       </c>
-      <c r="L56">
+      <c r="M63" s="14">
+        <f t="shared" si="2"/>
         <v>193920.00795017413</v>
       </c>
-      <c r="M56">
+      <c r="N63" s="14">
+        <f t="shared" si="2"/>
         <v>16585.716715763741</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="3"/>
+      <c r="AB63" s="3"/>
+      <c r="AC63" s="3"/>
+    </row>
+    <row r="64" spans="1:29">
+      <c r="A64" s="6">
+        <v>1952</v>
+      </c>
+      <c r="B64" s="2">
         <v>16472979</v>
       </c>
-      <c r="B57">
+      <c r="C64" s="12">
         <v>1941259</v>
       </c>
-      <c r="C57">
+      <c r="D64" s="12">
         <v>211924</v>
       </c>
-      <c r="D57">
+      <c r="E64" s="12">
         <v>18202314</v>
       </c>
-      <c r="E57">
+      <c r="F64" s="2">
         <v>17286030</v>
       </c>
-      <c r="G57">
+      <c r="G64" s="2"/>
+      <c r="H64" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D58*(B64/F64)</f>
         <v>7510499.9114283035</v>
       </c>
-      <c r="H57">
+      <c r="I64" s="14">
+        <f>$H64*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>64274.860940754035</v>
       </c>
-      <c r="I57">
+      <c r="J64" s="14">
+        <f>$H64*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>180429.74194199435</v>
       </c>
-      <c r="K57">
+      <c r="K64" s="3"/>
+      <c r="L64" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F58+[1]API_1975_Consumption_Fiberpulp!H58)*(B64/F64)</f>
         <v>1154150.978250298</v>
       </c>
-      <c r="L57">
+      <c r="M64" s="14">
+        <f t="shared" si="2"/>
         <v>136010.97736403326</v>
       </c>
-      <c r="M57">
+      <c r="N64" s="14">
+        <f t="shared" si="2"/>
         <v>14848.0910413785</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="3"/>
+      <c r="AB64" s="3"/>
+      <c r="AC64" s="3"/>
+    </row>
+    <row r="65" spans="1:29">
+      <c r="A65" s="6">
+        <v>1953</v>
+      </c>
+      <c r="B65" s="2">
         <v>17537297</v>
       </c>
-      <c r="B58">
+      <c r="C65" s="12">
         <v>2157574</v>
       </c>
-      <c r="C58">
+      <c r="D65" s="12">
         <v>161687</v>
       </c>
-      <c r="D58">
+      <c r="E65" s="12">
         <v>19533184</v>
       </c>
-      <c r="E58">
+      <c r="F65" s="2">
         <v>18683543</v>
       </c>
-      <c r="G58">
+      <c r="G65" s="2"/>
+      <c r="H65" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D59*(B65/F65)</f>
         <v>8007301.0296073928</v>
       </c>
-      <c r="H58">
+      <c r="I65" s="14">
+        <f>$H65*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>68526.485088646397</v>
       </c>
-      <c r="I58">
+      <c r="J65" s="14">
+        <f>$H65*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>192364.72611170998</v>
       </c>
-      <c r="K58">
+      <c r="K65" s="3"/>
+      <c r="L65" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F59+[1]API_1975_Consumption_Fiberpulp!H59)*(B65/F65)</f>
         <v>1177643.6554702178</v>
       </c>
-      <c r="L58">
+      <c r="M65" s="14">
+        <f t="shared" si="2"/>
         <v>144882.83640902585</v>
       </c>
-      <c r="M58">
+      <c r="N65" s="14">
+        <f t="shared" si="2"/>
         <v>10857.412617349932</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+      <c r="AA65" s="3"/>
+      <c r="AB65" s="3"/>
+      <c r="AC65" s="3"/>
+    </row>
+    <row r="66" spans="1:29">
+      <c r="A66" s="6">
+        <v>1954</v>
+      </c>
+      <c r="B66" s="2">
         <v>18302273</v>
       </c>
-      <c r="B59">
+      <c r="C66" s="12">
         <v>2051798</v>
       </c>
-      <c r="C59">
+      <c r="D66" s="12">
         <v>443870</v>
       </c>
-      <c r="D59">
+      <c r="E66" s="12">
         <v>19910201</v>
       </c>
-      <c r="E59">
+      <c r="F66" s="2">
         <v>18989159</v>
       </c>
-      <c r="G59">
+      <c r="G66" s="2"/>
+      <c r="H66" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D60*(B66/F66)</f>
         <v>7572442.5308093419</v>
       </c>
-      <c r="H59">
+      <c r="I66" s="14">
+        <f>$H66*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>64804.965899674826</v>
       </c>
-      <c r="I59">
+      <c r="J66" s="14">
+        <f>$H66*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>181917.8307459268</v>
       </c>
-      <c r="K59">
+      <c r="K66" s="3"/>
+      <c r="L66" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F60+[1]API_1975_Consumption_Fiberpulp!H60)*(B66/F66)</f>
         <v>1156296.1003126046</v>
       </c>
-      <c r="L59">
+      <c r="M66" s="14">
+        <f t="shared" si="2"/>
         <v>129627.94435582955</v>
       </c>
-      <c r="M59">
+      <c r="N66" s="14">
+        <f t="shared" si="2"/>
         <v>28042.699944742151</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
+      <c r="AA66" s="3"/>
+      <c r="AB66" s="3"/>
+      <c r="AC66" s="3"/>
+    </row>
+    <row r="67" spans="1:29">
+      <c r="A67" s="6">
+        <v>1955</v>
+      </c>
+      <c r="B67" s="2">
         <v>20739696</v>
       </c>
-      <c r="B60">
+      <c r="C67" s="12">
         <v>2213353</v>
       </c>
-      <c r="C60">
+      <c r="D67" s="12">
         <v>634276</v>
       </c>
-      <c r="D60">
+      <c r="E67" s="12">
         <v>22318773</v>
       </c>
-      <c r="E60">
+      <c r="F67" s="2">
         <v>21453766</v>
       </c>
-      <c r="G60">
+      <c r="G67" s="2"/>
+      <c r="H67" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D61*(B67/F67)</f>
         <v>8739853.8758429643</v>
       </c>
-      <c r="H60">
+      <c r="I67" s="14">
+        <f>$H67*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>74795.6726099589</v>
       </c>
-      <c r="I60">
+      <c r="J67" s="14">
+        <f>$H67*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>209963.33107328322</v>
       </c>
-      <c r="K60">
+      <c r="K67" s="3"/>
+      <c r="L67" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F61+[1]API_1975_Consumption_Fiberpulp!H61)*(B67/F67)</f>
         <v>1295798.5154889822</v>
       </c>
-      <c r="L60">
+      <c r="M67" s="14">
+        <f t="shared" si="2"/>
         <v>138288.40748934241</v>
       </c>
-      <c r="M60">
+      <c r="N67" s="14">
+        <f t="shared" si="2"/>
         <v>39629.023453877518</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="1:29">
+      <c r="A68" s="6">
+        <v>1956</v>
+      </c>
+      <c r="B68" s="2">
         <v>22130949</v>
       </c>
-      <c r="B61">
+      <c r="C68" s="12">
         <v>2334253</v>
       </c>
-      <c r="C61">
+      <c r="D68" s="12">
         <v>534494</v>
       </c>
-      <c r="D61">
+      <c r="E68" s="12">
         <v>23930708</v>
       </c>
-      <c r="E61">
+      <c r="F68" s="2">
         <v>22998380</v>
       </c>
-      <c r="G61">
+      <c r="G68" s="2"/>
+      <c r="H68" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D62*(B68/F68)</f>
         <v>8503164.2298327535</v>
       </c>
-      <c r="H61">
+      <c r="I68" s="14">
+        <f>$H68*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>72770.082534353744</v>
       </c>
-      <c r="I61">
+      <c r="J68" s="14">
+        <f>$H68*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>204277.17805369777</v>
       </c>
-      <c r="K61">
+      <c r="K68" s="3"/>
+      <c r="L68" s="14">
+        <f>([1]API_1975_Consumption_Fiberpulp!F62+[1]API_1975_Consumption_Fiberpulp!H62)*(B68/F68)</f>
         <v>1492817.4498038993</v>
       </c>
-      <c r="L61">
+      <c r="M68" s="14">
+        <f t="shared" si="2"/>
         <v>157454.32383659197</v>
       </c>
-      <c r="M61">
+      <c r="N68" s="14">
+        <f t="shared" si="2"/>
         <v>36053.671716268713</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
+      <c r="AA68" s="3"/>
+      <c r="AB68" s="3"/>
+      <c r="AC68" s="3"/>
+    </row>
+    <row r="69" spans="1:29">
+      <c r="A69" s="6">
+        <v>1957</v>
+      </c>
+      <c r="B69" s="2">
         <v>21800209</v>
       </c>
-      <c r="B62">
+      <c r="C69" s="12">
         <v>2106681</v>
       </c>
-      <c r="C62">
+      <c r="D69" s="12">
         <v>628721</v>
       </c>
-      <c r="D62">
+      <c r="E69" s="12">
         <v>23278169</v>
       </c>
-      <c r="E62">
+      <c r="F69" s="2">
         <v>22459420</v>
       </c>
-      <c r="G62">
+      <c r="G69" s="2"/>
+      <c r="H69" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D63*(B69/F69)</f>
         <v>8243826.0320071047</v>
       </c>
-      <c r="H62">
+      <c r="I69" s="14">
+        <f>$H69*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>70550.666144173752</v>
       </c>
-      <c r="I62">
+      <c r="J69" s="14">
+        <f>$H69*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>198046.92378817513</v>
       </c>
-      <c r="K62">
+      <c r="K69" s="3"/>
+      <c r="L69" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!G63*(B69/F69)</f>
         <v>1073027.9786510516</v>
       </c>
-      <c r="L62">
+      <c r="M69" s="14">
+        <f t="shared" si="2"/>
         <v>103692.93501234673</v>
       </c>
-      <c r="M62">
+      <c r="N69" s="14">
+        <f t="shared" si="2"/>
         <v>30946.273210750773</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
+      <c r="AA69" s="3"/>
+      <c r="AB69" s="3"/>
+      <c r="AC69" s="3"/>
+    </row>
+    <row r="70" spans="1:29">
+      <c r="A70" s="6">
+        <v>1953</v>
+      </c>
+      <c r="B70" s="2">
         <v>21795652</v>
       </c>
-      <c r="B63">
+      <c r="C70" s="12">
         <v>2101787</v>
       </c>
-      <c r="C63">
+      <c r="D70" s="12">
         <v>515859</v>
       </c>
-      <c r="D63">
+      <c r="E70" s="12">
         <v>23381580</v>
       </c>
-      <c r="E63">
+      <c r="F70" s="2">
         <v>22483118</v>
       </c>
-      <c r="G63">
+      <c r="G70" s="2"/>
+      <c r="H70" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D64*(B70/F70)</f>
         <v>8405696.3298973031</v>
       </c>
-      <c r="H63">
+      <c r="I70" s="14">
+        <f>$H70*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>71935.952211682976</v>
       </c>
-      <c r="I63">
+      <c r="J70" s="14">
+        <f>$H70*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>201935.64177244151</v>
       </c>
-      <c r="K63">
+      <c r="K70" s="3"/>
+      <c r="L70" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!G64*(B70/F70)</f>
         <v>972656.03905205685</v>
       </c>
-      <c r="L63">
+      <c r="M70" s="14">
+        <f t="shared" si="2"/>
         <v>93794.662272599395</v>
       </c>
-      <c r="M63">
+      <c r="N70" s="14">
+        <f t="shared" si="2"/>
         <v>23020.801196924735</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
+      <c r="AA70" s="3"/>
+      <c r="AB70" s="3"/>
+      <c r="AC70" s="3"/>
+    </row>
+    <row r="71" spans="1:29">
+      <c r="A71" s="6">
+        <v>1959</v>
+      </c>
+      <c r="B71" s="2">
         <v>24383391</v>
       </c>
-      <c r="B64">
+      <c r="C71" s="12">
         <v>2431433</v>
       </c>
-      <c r="C64">
+      <c r="D71" s="12">
         <v>652437</v>
       </c>
-      <c r="D64">
+      <c r="E71" s="12">
         <v>26162387</v>
       </c>
-      <c r="E64">
+      <c r="F71" s="2">
         <v>25155362</v>
       </c>
-      <c r="G64">
+      <c r="G71" s="2"/>
+      <c r="H71" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D65*(B71/F71)</f>
         <v>9125250.2561013829</v>
       </c>
-      <c r="H64">
+      <c r="I71" s="14">
+        <f>$H71*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>78093.894970695066</v>
       </c>
-      <c r="I64">
+      <c r="J71" s="14">
+        <f>$H71*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>219221.96501981915</v>
       </c>
-      <c r="K64">
+      <c r="K71" s="3"/>
+      <c r="L71" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!G65*(B71/F71)</f>
         <v>949399.29700423311</v>
       </c>
-      <c r="L64">
+      <c r="M71" s="14">
+        <f t="shared" si="2"/>
         <v>94671.03164251821</v>
       </c>
-      <c r="M64">
+      <c r="N71" s="14">
+        <f t="shared" si="2"/>
         <v>25403.489987899997</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3"/>
+      <c r="AA71" s="3"/>
+      <c r="AB71" s="3"/>
+      <c r="AC71" s="3"/>
+    </row>
+    <row r="72" spans="1:29">
+      <c r="A72" s="18">
+        <v>1960</v>
+      </c>
+      <c r="B72" s="16">
         <v>25315589</v>
       </c>
-      <c r="B65">
+      <c r="C72" s="15">
         <v>2381487</v>
       </c>
-      <c r="C65">
+      <c r="D72" s="15">
         <v>1141534</v>
       </c>
-      <c r="D65">
+      <c r="E72" s="15">
         <v>26555542</v>
       </c>
-      <c r="E65">
+      <c r="F72" s="2">
         <v>25700031</v>
       </c>
-      <c r="G65">
+      <c r="G72" s="2"/>
+      <c r="H72" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D66*(B72/F72)</f>
         <v>8896511.7602638695</v>
       </c>
-      <c r="H65">
+      <c r="I72" s="14">
+        <f>$H72*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>76136.350841124935</v>
       </c>
-      <c r="I65">
+      <c r="J72" s="14">
+        <f>$H72*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>213726.82777690908</v>
       </c>
-      <c r="K65">
+      <c r="K72" s="3"/>
+      <c r="L72" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!G66*(B72/F72)</f>
         <v>956415.88851235248</v>
       </c>
-      <c r="L65">
+      <c r="M72" s="14">
+        <f t="shared" si="2"/>
         <v>89971.914344383476</v>
       </c>
-      <c r="M65">
+      <c r="N72" s="14">
+        <f t="shared" si="2"/>
         <v>43126.835993310677</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="3"/>
+      <c r="AA72" s="3"/>
+      <c r="AB72" s="3"/>
+      <c r="AC72" s="3"/>
+    </row>
+    <row r="73" spans="1:29">
+      <c r="A73" s="18">
+        <v>1961</v>
+      </c>
+      <c r="B73" s="16">
         <v>26522759</v>
       </c>
-      <c r="B66">
+      <c r="C73" s="15">
         <v>2466770</v>
       </c>
-      <c r="C66">
+      <c r="D73" s="15">
         <v>1177775</v>
       </c>
-      <c r="D66">
+      <c r="E73" s="15">
         <v>27811754</v>
       </c>
-      <c r="E66">
+      <c r="F73" s="2">
         <v>26682863</v>
       </c>
-      <c r="G66">
+      <c r="G73" s="2"/>
+      <c r="H73" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D67*(B73/F73)</f>
         <v>8963640.2004346754</v>
       </c>
-      <c r="H66">
+      <c r="I73" s="14">
+        <f>$H73*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>76710.836056227985</v>
       </c>
-      <c r="I66">
+      <c r="J73" s="14">
+        <f>$H73*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>215339.499007829</v>
       </c>
-      <c r="K66">
+      <c r="K73" s="3"/>
+      <c r="L73" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!G67*(B73/F73)</f>
         <v>888891.22936556686</v>
       </c>
-      <c r="L66">
+      <c r="M73" s="14">
+        <f t="shared" si="2"/>
         <v>82672.025857570072</v>
       </c>
-      <c r="M66">
+      <c r="N73" s="14">
+        <f t="shared" si="2"/>
         <v>39472.283696655788</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="3"/>
+      <c r="AA73" s="3"/>
+      <c r="AB73" s="3"/>
+      <c r="AC73" s="3"/>
+    </row>
+    <row r="74" spans="1:29">
+      <c r="A74" s="18">
+        <v>1962</v>
+      </c>
+      <c r="B74" s="16">
         <v>27908330</v>
       </c>
-      <c r="B67">
+      <c r="C74" s="15">
         <v>2788281</v>
       </c>
-      <c r="C67">
+      <c r="D74" s="2">
         <v>1186213</v>
       </c>
-      <c r="D67">
+      <c r="E74" s="15">
         <v>29510398</v>
       </c>
-      <c r="E67">
+      <c r="F74" s="2">
         <v>28598333</v>
       </c>
-      <c r="G67">
+      <c r="G74" s="2"/>
+      <c r="H74" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D68*(B74/F74)</f>
         <v>8855863.441724034</v>
       </c>
-      <c r="H67">
+      <c r="I74" s="14">
+        <f>$H74*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>75788.482516454853</v>
       </c>
-      <c r="I67">
+      <c r="J74" s="14">
+        <f>$H74*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>212750.30614572464</v>
       </c>
-      <c r="K67">
+      <c r="K74" s="3"/>
+      <c r="L74" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!G68*(B74/F74)</f>
         <v>939685.30637572485</v>
       </c>
-      <c r="L67">
+      <c r="M74" s="14">
+        <f t="shared" si="2"/>
         <v>93882.603715328441</v>
       </c>
-      <c r="M67">
+      <c r="N74" s="14">
+        <f t="shared" si="2"/>
         <v>39940.294755432078</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3"/>
+      <c r="AA74" s="3"/>
+      <c r="AB74" s="3"/>
+      <c r="AC74" s="3"/>
+    </row>
+    <row r="75" spans="1:29">
+      <c r="A75" s="18">
+        <v>1963</v>
+      </c>
+      <c r="B75" s="16">
         <v>29439097</v>
       </c>
-      <c r="B68">
+      <c r="C75" s="15">
         <v>2774778</v>
       </c>
-      <c r="C68">
+      <c r="D75" s="15">
         <v>1421936</v>
       </c>
-      <c r="D68">
+      <c r="E75" s="15">
         <v>30791939</v>
       </c>
-      <c r="E68">
+      <c r="F75" s="2">
         <v>30219885</v>
       </c>
-      <c r="G68">
+      <c r="G75" s="2"/>
+      <c r="H75" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D69*(B75/F75)</f>
         <v>9364449.7068091091</v>
       </c>
-      <c r="H68">
+      <c r="I75" s="14">
+        <f>$H75*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>80140.96395580341</v>
       </c>
-      <c r="I68">
+      <c r="J75" s="14">
+        <f>$H75*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>224968.41274937571</v>
       </c>
-      <c r="K68">
+      <c r="K75" s="3"/>
+      <c r="L75" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!G69*(B75/F75)</f>
         <v>1251521.9532554476</v>
       </c>
-      <c r="L68">
+      <c r="M75" s="14">
+        <f t="shared" si="2"/>
         <v>117962.02792532135</v>
       </c>
-      <c r="M68">
+      <c r="N75" s="14">
+        <f t="shared" si="2"/>
         <v>60449.684313490936</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3"/>
+      <c r="AA75" s="3"/>
+      <c r="AB75" s="3"/>
+      <c r="AC75" s="3"/>
+    </row>
+    <row r="76" spans="1:29">
+      <c r="A76" s="18">
+        <v>1964</v>
+      </c>
+      <c r="B76" s="16">
         <v>31911056</v>
       </c>
-      <c r="B69">
+      <c r="C76" s="15">
         <v>2942303</v>
       </c>
-      <c r="C69">
+      <c r="D76" s="15">
         <v>1580154</v>
       </c>
-      <c r="D69">
+      <c r="E76" s="15">
         <v>33273205</v>
       </c>
-      <c r="E69">
+      <c r="F76" s="2">
         <v>32087548</v>
       </c>
-      <c r="G69">
+      <c r="G76" s="2"/>
+      <c r="H76" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D70*(B76/F76)</f>
         <v>9789346.5937124267</v>
       </c>
-      <c r="H69">
+      <c r="I76" s="14">
+        <f>$H76*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>83777.231666600346</v>
       </c>
-      <c r="I69">
+      <c r="J76" s="14">
+        <f>$H76*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>235175.99367741315</v>
       </c>
-      <c r="K69">
+      <c r="K76" s="3"/>
+      <c r="L76" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!G70*(B76/F76)</f>
         <v>923478.47354419227</v>
       </c>
-      <c r="L69">
+      <c r="M76" s="14">
+        <f t="shared" si="2"/>
         <v>85147.714420497316</v>
       </c>
-      <c r="M69">
+      <c r="N76" s="14">
+        <f t="shared" si="2"/>
         <v>45728.295669211002</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
+      <c r="AA76" s="3"/>
+      <c r="AB76" s="3"/>
+      <c r="AC76" s="3"/>
+    </row>
+    <row r="77" spans="1:29">
+      <c r="A77" s="18">
+        <v>1965</v>
+      </c>
+      <c r="B77" s="16">
         <v>33295727</v>
       </c>
-      <c r="B70">
+      <c r="C77" s="15">
         <v>3137097</v>
       </c>
-      <c r="C70">
+      <c r="D77" s="15">
         <v>1402203</v>
       </c>
-      <c r="D70">
+      <c r="E77" s="15">
         <v>35030621</v>
       </c>
-      <c r="E70">
+      <c r="F77" s="2">
         <v>34006285</v>
       </c>
-      <c r="G70">
+      <c r="G77" s="2"/>
+      <c r="H77" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D71*(B77/F77)</f>
         <v>10017383.849500204</v>
       </c>
-      <c r="H70">
+      <c r="I77" s="14">
+        <f>$H77*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>85728.774583572856</v>
       </c>
-      <c r="I70">
+      <c r="J77" s="14">
+        <f>$H77*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>240654.28456352866</v>
       </c>
-      <c r="K70">
+      <c r="K77" s="3"/>
+      <c r="L77" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!G71*(B77/F77)</f>
         <v>860633.38094708079</v>
       </c>
-      <c r="L70">
+      <c r="M77" s="14">
+        <f t="shared" ref="M77:N84" si="4">$L77*(C77/$B77)</f>
         <v>81088.194814576185</v>
       </c>
-      <c r="M70">
+      <c r="N77" s="14">
+        <f t="shared" si="4"/>
         <v>36244.371797742679</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3"/>
+      <c r="AA77" s="3"/>
+      <c r="AB77" s="3"/>
+      <c r="AC77" s="3"/>
+    </row>
+    <row r="78" spans="1:29">
+      <c r="A78" s="18">
+        <v>1966</v>
+      </c>
+      <c r="B78" s="16">
         <v>35636268</v>
       </c>
-      <c r="B71">
+      <c r="C78" s="15">
         <v>3358183</v>
       </c>
-      <c r="C71">
+      <c r="D78" s="15">
         <v>1547379</v>
       </c>
-      <c r="D71">
+      <c r="E78" s="15">
         <v>37447072</v>
       </c>
-      <c r="E71">
+      <c r="F78" s="2">
         <v>36922186</v>
       </c>
-      <c r="G71">
+      <c r="G78" s="2"/>
+      <c r="H78" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D72*(B78/F78)</f>
         <v>10195979.853857949</v>
       </c>
-      <c r="H71">
+      <c r="I78" s="14">
+        <f>$H78*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>87257.199253041414</v>
       </c>
-      <c r="I71">
+      <c r="J78" s="14">
+        <f>$H78*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>244944.81533486999</v>
       </c>
-      <c r="K71">
+      <c r="K78" s="3"/>
+      <c r="L78" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!G72*(B78/F78)</f>
         <v>946218.16186658072</v>
       </c>
-      <c r="L71">
+      <c r="M78" s="14">
+        <f t="shared" si="4"/>
         <v>89166.849499268545</v>
       </c>
-      <c r="M71">
+      <c r="N78" s="14">
+        <f t="shared" si="4"/>
         <v>41086.179761891675</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="3"/>
+      <c r="AA78" s="3"/>
+      <c r="AB78" s="3"/>
+      <c r="AC78" s="3"/>
+    </row>
+    <row r="79" spans="1:29">
+      <c r="A79" s="18">
+        <v>1967</v>
+      </c>
+      <c r="B79" s="16">
         <v>36354923</v>
       </c>
-      <c r="B72">
+      <c r="C79" s="15">
         <v>3166130</v>
       </c>
-      <c r="C72">
+      <c r="D79" s="15">
         <v>1720783</v>
       </c>
-      <c r="D72">
+      <c r="E79" s="15">
         <v>37800270</v>
       </c>
-      <c r="E72">
+      <c r="F79" s="2">
         <v>36993999</v>
       </c>
-      <c r="G72">
+      <c r="G79" s="2"/>
+      <c r="H79" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D73*(B79/F79)</f>
         <v>9717314.2549081817</v>
       </c>
-      <c r="H72">
+      <c r="I79" s="14">
+        <f>$H79*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>83160.778885230218</v>
       </c>
-      <c r="I72">
+      <c r="J79" s="14">
+        <f>$H79*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>233445.51282324898</v>
       </c>
-      <c r="K72">
+      <c r="K79" s="3"/>
+      <c r="L79" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!G73*(B79/F79)</f>
         <v>821557.99452770711</v>
       </c>
-      <c r="L72">
+      <c r="M79" s="14">
+        <f t="shared" si="4"/>
         <v>71549.028262664986</v>
       </c>
-      <c r="M72">
+      <c r="N79" s="14">
+        <f t="shared" si="4"/>
         <v>38886.701272819955</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3"/>
+      <c r="AA79" s="3"/>
+      <c r="AB79" s="3"/>
+      <c r="AC79" s="3"/>
+    </row>
+    <row r="80" spans="1:29">
+      <c r="A80" s="18">
+        <v>1968</v>
+      </c>
+      <c r="B80" s="16">
         <v>39196454</v>
       </c>
-      <c r="B73">
+      <c r="C80" s="15">
         <v>3532020</v>
       </c>
-      <c r="C73">
+      <c r="D80" s="15">
         <v>1915604</v>
       </c>
-      <c r="D73">
+      <c r="E80" s="15">
         <v>40812870</v>
       </c>
-      <c r="E73">
+      <c r="F80" s="2">
         <v>41302856</v>
       </c>
-      <c r="G73">
+      <c r="G80" s="2"/>
+      <c r="H80" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D74*(B80/F80)</f>
         <v>9700446.809107583</v>
       </c>
-      <c r="H73">
+      <c r="I80" s="14">
+        <f>$H80*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>83016.427278007715</v>
       </c>
-      <c r="I73">
+      <c r="J80" s="14">
+        <f>$H80*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>233040.29493776686</v>
       </c>
-      <c r="K73">
+      <c r="K80" s="3"/>
+      <c r="L80" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!G74*(B80/F80)</f>
         <v>858609.6552972995</v>
       </c>
-      <c r="L73">
+      <c r="M80" s="14">
+        <f t="shared" si="4"/>
         <v>77369.919092762007</v>
       </c>
-      <c r="M73">
+      <c r="N80" s="14">
+        <f t="shared" si="4"/>
         <v>41961.859359168768</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3"/>
+      <c r="AA80" s="3"/>
+      <c r="AB80" s="3"/>
+      <c r="AC80" s="3"/>
+    </row>
+    <row r="81" spans="1:29">
+      <c r="A81" s="18">
+        <v>1969</v>
+      </c>
+      <c r="B81" s="16">
         <v>40990405</v>
       </c>
-      <c r="B74">
+      <c r="C81" s="15">
         <v>4040460</v>
       </c>
-      <c r="C74">
+      <c r="D81" s="15">
         <v>2102660</v>
       </c>
-      <c r="D74">
+      <c r="E81" s="15">
         <v>42928205</v>
       </c>
-      <c r="E74">
+      <c r="F81" s="19">
         <v>43699831</v>
       </c>
-      <c r="G74">
+      <c r="G81" s="2"/>
+      <c r="H81" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D75*(B81/F81)</f>
         <v>11226912.008996099</v>
       </c>
-      <c r="H74">
+      <c r="I81" s="14">
+        <f>$H81*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>96079.917007158918</v>
       </c>
-      <c r="I74">
+      <c r="J81" s="14">
+        <f>$H81*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>269711.58517774532</v>
       </c>
-      <c r="K74">
+      <c r="K81" s="3"/>
+      <c r="L81" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!G75*(B81/F81)</f>
         <v>823412.2492326115</v>
       </c>
-      <c r="L74">
+      <c r="M81" s="14">
+        <f t="shared" si="4"/>
         <v>81164.464135799528</v>
       </c>
-      <c r="M74">
+      <c r="N81" s="14">
+        <f t="shared" si="4"/>
         <v>42238.079862139515</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
+      <c r="AA81" s="3"/>
+      <c r="AB81" s="3"/>
+      <c r="AC81" s="3"/>
+    </row>
+    <row r="82" spans="1:29">
+      <c r="A82" s="6">
+        <v>1970</v>
+      </c>
+      <c r="B82" s="2">
         <v>42216056</v>
       </c>
-      <c r="B75">
+      <c r="C82" s="12">
         <v>3512872</v>
       </c>
-      <c r="C75">
+      <c r="D82" s="12">
         <v>3095390</v>
       </c>
-      <c r="D75">
+      <c r="E82" s="12">
         <v>42633538</v>
       </c>
-      <c r="E75">
+      <c r="F82" s="19">
         <v>43191642</v>
       </c>
-      <c r="G75">
+      <c r="G82" s="2"/>
+      <c r="H82" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D76*(B82/F82)</f>
         <v>11536401.162243379</v>
       </c>
-      <c r="H75">
+      <c r="I82" s="14">
+        <f>$H82*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>98728.525291857979</v>
       </c>
-      <c r="I75">
+      <c r="J82" s="14">
+        <f>$H82*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>277146.64924974978</v>
       </c>
-      <c r="K75">
+      <c r="K82" s="3"/>
+      <c r="L82" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!G76*(B82/F82)</f>
         <v>809297.64994810801</v>
       </c>
-      <c r="L75">
+      <c r="M82" s="14">
+        <f t="shared" si="4"/>
         <v>67343.075681169983</v>
       </c>
-      <c r="M75">
+      <c r="N82" s="14">
+        <f t="shared" si="4"/>
         <v>59339.788934164622</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="1:29">
+      <c r="A83" s="6">
+        <v>1971</v>
+      </c>
+      <c r="B83" s="2">
         <v>43743795</v>
       </c>
-      <c r="B76">
+      <c r="C83" s="15">
         <v>3515045</v>
       </c>
-      <c r="C76">
+      <c r="D83" s="15">
         <v>2175446</v>
       </c>
-      <c r="D76">
+      <c r="E83" s="15">
         <v>45083394</v>
       </c>
-      <c r="E76">
+      <c r="F83" s="19">
         <v>44182674</v>
       </c>
-      <c r="G76">
+      <c r="G83" s="2"/>
+      <c r="H83" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D77*(B83/F83)</f>
         <v>11985747.677245609</v>
       </c>
-      <c r="H76">
+      <c r="I83" s="14">
+        <f>$H83*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>102574.03292871092</v>
       </c>
-      <c r="I76">
+      <c r="J83" s="14">
+        <f>$H83*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>287941.59987893741</v>
       </c>
-      <c r="K76">
+      <c r="K83" s="3"/>
+      <c r="L83" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!G77*(B83/F83)</f>
         <v>866308.37746488594</v>
       </c>
-      <c r="L76">
+      <c r="M83" s="14">
+        <f t="shared" si="4"/>
         <v>69612.454307315129</v>
       </c>
-      <c r="M76">
+      <c r="N83" s="14">
+        <f t="shared" si="4"/>
         <v>43082.843967298133</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3"/>
+      <c r="AA83" s="3"/>
+      <c r="AB83" s="3"/>
+      <c r="AC83" s="3"/>
+    </row>
+    <row r="84" spans="1:29">
+      <c r="A84" s="6">
+        <v>1972</v>
+      </c>
+      <c r="B84" s="2">
         <v>46604395</v>
       </c>
-      <c r="B77">
+      <c r="C84" s="12">
         <v>3727776</v>
       </c>
-      <c r="C77">
+      <c r="D84" s="12">
         <v>2252778</v>
       </c>
-      <c r="D77">
+      <c r="E84" s="12">
         <v>48079393</v>
       </c>
-      <c r="E77">
+      <c r="F84" s="20">
         <v>46949119</v>
       </c>
-      <c r="G77">
+      <c r="G84" s="2"/>
+      <c r="H84" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!D78*(B84/F84)</f>
         <v>12830098.161692875</v>
       </c>
-      <c r="H77">
+      <c r="I84" s="14">
+        <f>$H84*AVERAGE('[1]Howard_Table 47'!K$10:K$14)</f>
         <v>109799.98467801137</v>
       </c>
-      <c r="I77">
+      <c r="J84" s="14">
+        <f>$H84*AVERAGE('[1]Howard_Table 47'!J$10:J$14)</f>
         <v>308225.99396908336</v>
       </c>
-      <c r="K77">
+      <c r="K84" s="3"/>
+      <c r="L84" s="14">
+        <f>[1]API_1975_Consumption_Fiberpulp!G78*(B84/F84)</f>
         <v>885450.48821895896</v>
       </c>
-      <c r="L77">
+      <c r="M84" s="14">
+        <f t="shared" si="4"/>
         <v>70825.103065299278</v>
       </c>
-      <c r="M77">
+      <c r="N84" s="14">
+        <f t="shared" si="4"/>
         <v>42801.18602438525</v>
       </c>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="3"/>
+      <c r="AA84" s="3"/>
+      <c r="AB84" s="3"/>
+      <c r="AC84" s="3"/>
+    </row>
+    <row r="85" spans="1:29">
+      <c r="A85" s="3"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+      <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
+      <c r="Z85" s="3"/>
+      <c r="AA85" s="3"/>
+      <c r="AB85" s="3"/>
+      <c r="AC85" s="3"/>
+    </row>
+    <row r="86" spans="1:29">
+      <c r="A86" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="19"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="3"/>
+      <c r="AA86" s="3"/>
+      <c r="AB86" s="3"/>
+      <c r="AC86" s="3"/>
+    </row>
+    <row r="87" spans="1:29">
+      <c r="A87" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" s="20"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
+      <c r="X87" s="3"/>
+      <c r="Y87" s="3"/>
+      <c r="Z87" s="3"/>
+      <c r="AA87" s="3"/>
+      <c r="AB87" s="3"/>
+      <c r="AC87" s="3"/>
+    </row>
+    <row r="88" spans="1:29">
+      <c r="A88" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="3"/>
+      <c r="AA88" s="3"/>
+      <c r="AB88" s="3"/>
+      <c r="AC88" s="3"/>
+    </row>
+    <row r="89" spans="1:29">
+      <c r="A89" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3"/>
+      <c r="X89" s="3"/>
+      <c r="Y89" s="3"/>
+      <c r="Z89" s="3"/>
+      <c r="AA89" s="3"/>
+      <c r="AB89" s="3"/>
+      <c r="AC89" s="3"/>
+    </row>
+    <row r="90" spans="1:29">
+      <c r="A90" s="3"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="1:29">
+      <c r="A91" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
+      <c r="Y91" s="3"/>
+      <c r="Z91" s="3"/>
+      <c r="AA91" s="3"/>
+      <c r="AB91" s="3"/>
+      <c r="AC91" s="3"/>
+    </row>
+    <row r="92" spans="1:29">
+      <c r="A92" s="3"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="3"/>
+      <c r="AA92" s="3"/>
+      <c r="AB92" s="3"/>
+      <c r="AC92" s="3"/>
+    </row>
+    <row r="93" spans="1:29">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3"/>
+      <c r="W93" s="3"/>
+      <c r="X93" s="3"/>
+      <c r="Y93" s="3"/>
+      <c r="Z93" s="3"/>
+      <c r="AA93" s="3"/>
+      <c r="AB93" s="3"/>
+      <c r="AC93" s="3"/>
+    </row>
+    <row r="94" spans="1:29">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+      <c r="Y94" s="3"/>
+      <c r="Z94" s="3"/>
+      <c r="AA94" s="3"/>
+      <c r="AB94" s="3"/>
+      <c r="AC94" s="3"/>
+    </row>
+    <row r="95" spans="1:29">
+      <c r="A95" s="3"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="1:29">
+      <c r="A96" s="3"/>
+      <c r="B96" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="3"/>
+      <c r="AA96" s="3"/>
+      <c r="AB96" s="3"/>
+      <c r="AC96" s="3"/>
+    </row>
+    <row r="97" spans="1:29">
+      <c r="A97" s="3"/>
+      <c r="B97" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
+      <c r="X97" s="3"/>
+      <c r="Y97" s="3"/>
+      <c r="Z97" s="3"/>
+      <c r="AA97" s="3"/>
+      <c r="AB97" s="3"/>
+      <c r="AC97" s="3"/>
+    </row>
+    <row r="98" spans="1:29">
+      <c r="A98" s="3"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
+      <c r="X98" s="3"/>
+      <c r="Y98" s="3"/>
+      <c r="Z98" s="3"/>
+      <c r="AA98" s="3"/>
+      <c r="AB98" s="3"/>
+      <c r="AC98" s="3"/>
+    </row>
+    <row r="99" spans="1:29">
+      <c r="A99" s="3"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3"/>
+      <c r="W99" s="3"/>
+      <c r="X99" s="3"/>
+      <c r="Y99" s="3"/>
+      <c r="Z99" s="3"/>
+      <c r="AA99" s="3"/>
+      <c r="AB99" s="3"/>
+      <c r="AC99" s="3"/>
+    </row>
+    <row r="100" spans="1:29">
+      <c r="A100" s="3"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
+      <c r="X100" s="3"/>
+      <c r="Y100" s="3"/>
+      <c r="Z100" s="3"/>
+      <c r="AA100" s="3"/>
+      <c r="AB100" s="3"/>
+      <c r="AC100" s="3"/>
+    </row>
+    <row r="101" spans="1:29">
+      <c r="A101" s="6"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3"/>
+      <c r="R101" s="3"/>
+      <c r="S101" s="3"/>
+      <c r="T101" s="3"/>
+      <c r="U101" s="3"/>
+      <c r="V101" s="3"/>
+      <c r="W101" s="3"/>
+      <c r="X101" s="3"/>
+      <c r="Y101" s="3"/>
+      <c r="Z101" s="3"/>
+      <c r="AA101" s="3"/>
+      <c r="AB101" s="3"/>
+      <c r="AC101" s="3"/>
+    </row>
+    <row r="102" spans="1:29">
+      <c r="A102" s="6"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3"/>
+      <c r="S102" s="3"/>
+      <c r="T102" s="3"/>
+      <c r="U102" s="3"/>
+      <c r="V102" s="3"/>
+      <c r="W102" s="3"/>
+      <c r="X102" s="3"/>
+      <c r="Y102" s="3"/>
+      <c r="Z102" s="3"/>
+      <c r="AA102" s="3"/>
+      <c r="AB102" s="3"/>
+      <c r="AC102" s="3"/>
+    </row>
+    <row r="103" spans="1:29">
+      <c r="A103" s="6"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="3"/>
+      <c r="R103" s="3"/>
+      <c r="S103" s="3"/>
+      <c r="T103" s="3"/>
+      <c r="U103" s="3"/>
+      <c r="V103" s="3"/>
+      <c r="W103" s="3"/>
+      <c r="X103" s="3"/>
+      <c r="Y103" s="3"/>
+      <c r="Z103" s="3"/>
+      <c r="AA103" s="3"/>
+      <c r="AB103" s="3"/>
+      <c r="AC103" s="3"/>
+    </row>
+    <row r="104" spans="1:29">
+      <c r="A104" s="6"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+      <c r="R104" s="3"/>
+      <c r="S104" s="3"/>
+      <c r="T104" s="3"/>
+      <c r="U104" s="3"/>
+      <c r="V104" s="3"/>
+      <c r="W104" s="3"/>
+      <c r="X104" s="3"/>
+      <c r="Y104" s="3"/>
+      <c r="Z104" s="3"/>
+      <c r="AA104" s="3"/>
+      <c r="AB104" s="3"/>
+      <c r="AC104" s="3"/>
+    </row>
+    <row r="105" spans="1:29">
+      <c r="A105" s="6"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="3"/>
+      <c r="R105" s="3"/>
+      <c r="S105" s="3"/>
+      <c r="T105" s="3"/>
+      <c r="U105" s="3"/>
+      <c r="V105" s="3"/>
+      <c r="W105" s="3"/>
+      <c r="X105" s="3"/>
+      <c r="Y105" s="3"/>
+      <c r="Z105" s="3"/>
+      <c r="AA105" s="3"/>
+      <c r="AB105" s="3"/>
+      <c r="AC105" s="3"/>
+    </row>
+    <row r="106" spans="1:29">
+      <c r="A106" s="6"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3"/>
+      <c r="S106" s="3"/>
+      <c r="T106" s="3"/>
+      <c r="U106" s="3"/>
+      <c r="V106" s="3"/>
+      <c r="W106" s="3"/>
+      <c r="X106" s="3"/>
+      <c r="Y106" s="3"/>
+      <c r="Z106" s="3"/>
+      <c r="AA106" s="3"/>
+      <c r="AB106" s="3"/>
+      <c r="AC106" s="3"/>
+    </row>
+    <row r="107" spans="1:29">
+      <c r="A107" s="6"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3"/>
+      <c r="S107" s="3"/>
+      <c r="T107" s="3"/>
+      <c r="U107" s="3"/>
+      <c r="V107" s="3"/>
+      <c r="W107" s="3"/>
+      <c r="X107" s="3"/>
+      <c r="Y107" s="3"/>
+      <c r="Z107" s="3"/>
+      <c r="AA107" s="3"/>
+      <c r="AB107" s="3"/>
+      <c r="AC107" s="3"/>
+    </row>
+    <row r="108" spans="1:29">
+      <c r="A108" s="6"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="3"/>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3"/>
+      <c r="S108" s="3"/>
+      <c r="T108" s="3"/>
+      <c r="U108" s="3"/>
+      <c r="V108" s="3"/>
+      <c r="W108" s="3"/>
+      <c r="X108" s="3"/>
+      <c r="Y108" s="3"/>
+      <c r="Z108" s="3"/>
+      <c r="AA108" s="3"/>
+      <c r="AB108" s="3"/>
+      <c r="AC108" s="3"/>
+    </row>
+    <row r="109" spans="1:29">
+      <c r="A109" s="6"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+      <c r="Q109" s="3"/>
+      <c r="R109" s="3"/>
+      <c r="S109" s="3"/>
+      <c r="T109" s="3"/>
+      <c r="U109" s="3"/>
+      <c r="V109" s="3"/>
+      <c r="W109" s="3"/>
+      <c r="X109" s="3"/>
+      <c r="Y109" s="3"/>
+      <c r="Z109" s="3"/>
+      <c r="AA109" s="3"/>
+      <c r="AB109" s="3"/>
+      <c r="AC109" s="3"/>
+    </row>
+    <row r="110" spans="1:29">
+      <c r="A110" s="6"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3"/>
+      <c r="S110" s="3"/>
+      <c r="T110" s="3"/>
+      <c r="U110" s="3"/>
+      <c r="V110" s="3"/>
+      <c r="W110" s="3"/>
+      <c r="X110" s="3"/>
+      <c r="Y110" s="3"/>
+      <c r="Z110" s="3"/>
+      <c r="AA110" s="3"/>
+      <c r="AB110" s="3"/>
+      <c r="AC110" s="3"/>
+    </row>
+    <row r="111" spans="1:29">
+      <c r="A111" s="6"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+      <c r="Q111" s="3"/>
+      <c r="R111" s="3"/>
+      <c r="S111" s="3"/>
+      <c r="T111" s="3"/>
+      <c r="U111" s="3"/>
+      <c r="V111" s="3"/>
+      <c r="W111" s="3"/>
+      <c r="X111" s="3"/>
+      <c r="Y111" s="3"/>
+      <c r="Z111" s="3"/>
+      <c r="AA111" s="3"/>
+      <c r="AB111" s="3"/>
+      <c r="AC111" s="3"/>
+    </row>
+    <row r="112" spans="1:29">
+      <c r="A112" s="6"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="3"/>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3"/>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3"/>
+      <c r="U112" s="3"/>
+      <c r="V112" s="3"/>
+      <c r="W112" s="3"/>
+      <c r="X112" s="3"/>
+      <c r="Y112" s="3"/>
+      <c r="Z112" s="3"/>
+      <c r="AA112" s="3"/>
+      <c r="AB112" s="3"/>
+      <c r="AC112" s="3"/>
+    </row>
+    <row r="113" spans="1:29">
+      <c r="A113" s="6"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3"/>
+      <c r="U113" s="3"/>
+      <c r="V113" s="3"/>
+      <c r="W113" s="3"/>
+      <c r="X113" s="3"/>
+      <c r="Y113" s="3"/>
+      <c r="Z113" s="3"/>
+      <c r="AA113" s="3"/>
+      <c r="AB113" s="3"/>
+      <c r="AC113" s="3"/>
+    </row>
+    <row r="114" spans="1:29">
+      <c r="A114" s="6"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+      <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
+      <c r="Y114" s="3"/>
+      <c r="Z114" s="3"/>
+      <c r="AA114" s="3"/>
+      <c r="AB114" s="3"/>
+      <c r="AC114" s="3"/>
+    </row>
+    <row r="115" spans="1:29">
+      <c r="A115" s="6"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
+      <c r="Q115" s="3"/>
+      <c r="R115" s="3"/>
+      <c r="S115" s="3"/>
+      <c r="T115" s="3"/>
+      <c r="U115" s="3"/>
+      <c r="V115" s="3"/>
+      <c r="W115" s="3"/>
+      <c r="X115" s="3"/>
+      <c r="Y115" s="3"/>
+      <c r="Z115" s="3"/>
+      <c r="AA115" s="3"/>
+      <c r="AB115" s="3"/>
+      <c r="AC115" s="3"/>
+    </row>
+    <row r="116" spans="1:29">
+      <c r="A116" s="6"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+      <c r="R116" s="3"/>
+      <c r="S116" s="3"/>
+      <c r="T116" s="3"/>
+      <c r="U116" s="3"/>
+      <c r="V116" s="3"/>
+      <c r="W116" s="3"/>
+      <c r="X116" s="3"/>
+      <c r="Y116" s="3"/>
+      <c r="Z116" s="3"/>
+      <c r="AA116" s="3"/>
+      <c r="AB116" s="3"/>
+      <c r="AC116" s="3"/>
+    </row>
+    <row r="117" spans="1:29">
+      <c r="A117" s="6"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="3"/>
+      <c r="U117" s="3"/>
+      <c r="V117" s="3"/>
+      <c r="W117" s="3"/>
+      <c r="X117" s="3"/>
+      <c r="Y117" s="3"/>
+      <c r="Z117" s="3"/>
+      <c r="AA117" s="3"/>
+      <c r="AB117" s="3"/>
+      <c r="AC117" s="3"/>
+    </row>
+    <row r="118" spans="1:29">
+      <c r="A118" s="6"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="3"/>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
+      <c r="R118" s="3"/>
+      <c r="S118" s="3"/>
+      <c r="T118" s="3"/>
+      <c r="U118" s="3"/>
+      <c r="V118" s="3"/>
+      <c r="W118" s="3"/>
+      <c r="X118" s="3"/>
+      <c r="Y118" s="3"/>
+      <c r="Z118" s="3"/>
+      <c r="AA118" s="3"/>
+      <c r="AB118" s="3"/>
+      <c r="AC118" s="3"/>
+    </row>
+    <row r="119" spans="1:29">
+      <c r="A119" s="6"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="3"/>
+      <c r="P119" s="3"/>
+      <c r="Q119" s="3"/>
+      <c r="R119" s="3"/>
+      <c r="S119" s="3"/>
+      <c r="T119" s="3"/>
+      <c r="U119" s="3"/>
+      <c r="V119" s="3"/>
+      <c r="W119" s="3"/>
+      <c r="X119" s="3"/>
+      <c r="Y119" s="3"/>
+      <c r="Z119" s="3"/>
+      <c r="AA119" s="3"/>
+      <c r="AB119" s="3"/>
+      <c r="AC119" s="3"/>
+    </row>
+    <row r="120" spans="1:29">
+      <c r="A120" s="6"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="3"/>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3"/>
+      <c r="R120" s="3"/>
+      <c r="S120" s="3"/>
+      <c r="T120" s="3"/>
+      <c r="U120" s="3"/>
+      <c r="V120" s="3"/>
+      <c r="W120" s="3"/>
+      <c r="X120" s="3"/>
+      <c r="Y120" s="3"/>
+      <c r="Z120" s="3"/>
+      <c r="AA120" s="3"/>
+      <c r="AB120" s="3"/>
+      <c r="AC120" s="3"/>
+    </row>
+    <row r="121" spans="1:29">
+      <c r="A121" s="6"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
+      <c r="O121" s="3"/>
+      <c r="P121" s="3"/>
+      <c r="Q121" s="3"/>
+      <c r="R121" s="3"/>
+      <c r="S121" s="3"/>
+      <c r="T121" s="3"/>
+      <c r="U121" s="3"/>
+      <c r="V121" s="3"/>
+      <c r="W121" s="3"/>
+      <c r="X121" s="3"/>
+      <c r="Y121" s="3"/>
+      <c r="Z121" s="3"/>
+      <c r="AA121" s="3"/>
+      <c r="AB121" s="3"/>
+      <c r="AC121" s="3"/>
+    </row>
+    <row r="122" spans="1:29">
+      <c r="A122" s="6"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
+      <c r="O122" s="3"/>
+      <c r="P122" s="3"/>
+      <c r="Q122" s="3"/>
+      <c r="R122" s="3"/>
+      <c r="S122" s="3"/>
+      <c r="T122" s="3"/>
+      <c r="U122" s="3"/>
+      <c r="V122" s="3"/>
+      <c r="W122" s="3"/>
+      <c r="X122" s="3"/>
+      <c r="Y122" s="3"/>
+      <c r="Z122" s="3"/>
+      <c r="AA122" s="3"/>
+      <c r="AB122" s="3"/>
+      <c r="AC122" s="3"/>
+    </row>
+    <row r="123" spans="1:29">
+      <c r="A123" s="6"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
+      <c r="O123" s="3"/>
+      <c r="P123" s="3"/>
+      <c r="Q123" s="3"/>
+      <c r="R123" s="3"/>
+      <c r="S123" s="3"/>
+      <c r="T123" s="3"/>
+      <c r="U123" s="3"/>
+      <c r="V123" s="3"/>
+      <c r="W123" s="3"/>
+      <c r="X123" s="3"/>
+      <c r="Y123" s="3"/>
+      <c r="Z123" s="3"/>
+      <c r="AA123" s="3"/>
+      <c r="AB123" s="3"/>
+      <c r="AC123" s="3"/>
+    </row>
+    <row r="124" spans="1:29">
+      <c r="A124" s="6"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
+      <c r="O124" s="3"/>
+      <c r="P124" s="3"/>
+      <c r="Q124" s="3"/>
+      <c r="R124" s="3"/>
+      <c r="S124" s="3"/>
+      <c r="T124" s="3"/>
+      <c r="U124" s="3"/>
+      <c r="V124" s="3"/>
+      <c r="W124" s="3"/>
+      <c r="X124" s="3"/>
+      <c r="Y124" s="3"/>
+      <c r="Z124" s="3"/>
+      <c r="AA124" s="3"/>
+      <c r="AB124" s="3"/>
+      <c r="AC124" s="3"/>
+    </row>
+    <row r="125" spans="1:29">
+      <c r="A125" s="6"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="3"/>
+      <c r="P125" s="3"/>
+      <c r="Q125" s="3"/>
+      <c r="R125" s="3"/>
+      <c r="S125" s="3"/>
+      <c r="T125" s="3"/>
+      <c r="U125" s="3"/>
+      <c r="V125" s="3"/>
+      <c r="W125" s="3"/>
+      <c r="X125" s="3"/>
+      <c r="Y125" s="3"/>
+      <c r="Z125" s="3"/>
+      <c r="AA125" s="3"/>
+      <c r="AB125" s="3"/>
+      <c r="AC125" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A89:E89"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>